--- a/ETL/vietnames_to_fiin.xlsx
+++ b/ETL/vietnames_to_fiin.xlsx
@@ -5,13 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanghung20gg/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanghung20gg/code/fs_chatbot/chatbot_financial_statement/ETL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E391F7C-652F-9A49-AAD2-86ADF031970A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D2EED8-B245-3D4D-9BAC-DA7CF571104F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="1040" windowWidth="16860" windowHeight="19500" firstSheet="5" activeTab="11" xr2:uid="{181F491C-CE5D-4C83-A516-210AAAD12FF4}"/>
-    <workbookView xWindow="17180" yWindow="1040" windowWidth="16880" windowHeight="19520" firstSheet="1" activeTab="8" xr2:uid="{E372F426-2869-E24D-8798-A3AF32536E4D}"/>
+    <workbookView xWindow="2980" yWindow="500" windowWidth="22380" windowHeight="26080" firstSheet="3" activeTab="3" xr2:uid="{181F491C-CE5D-4C83-A516-210AAAD12FF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard BS" sheetId="4" r:id="rId1"/>
@@ -54,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7964" uniqueCount="3270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7970" uniqueCount="3271">
   <si>
     <t>vi_caption</t>
   </si>
@@ -9864,6 +9863,9 @@
   </si>
   <si>
     <t>TM_108</t>
+  </si>
+  <si>
+    <t>Nợ phải trả ngắn hạn</t>
   </si>
 </sst>
 </file>
@@ -10596,9 +10598,6 @@
     <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
-    <sheetView topLeftCell="A119" zoomScale="110" zoomScaleNormal="110" workbookViewId="1">
-      <selection activeCell="D144" sqref="D144"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -15219,7 +15218,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
-    <sheetView topLeftCell="A78" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -19002,9 +19000,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="E145" sqref="E145"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="G106" sqref="G106:G109"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -22022,10 +22017,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BDE7DB-271F-48AD-B868-DC80D2A870AC}">
   <dimension ref="A1:H643"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C411" workbookViewId="0">
+    <sheetView topLeftCell="C411" workbookViewId="0">
       <selection activeCell="G438" sqref="G438"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -23242,7 +23236,7 @@
         <v>66</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:E130" si="1">_xlfn.CONCAT("TM_",C67)</f>
+        <f t="shared" ref="D67:D130" si="1">_xlfn.CONCAT("TM_",C67)</f>
         <v>TM_66</v>
       </c>
       <c r="G67" s="30" t="s">
@@ -33739,9 +33733,6 @@
     <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="H77" sqref="H77"/>
     </sheetView>
-    <sheetView topLeftCell="A26" workbookViewId="1">
-      <selection activeCell="B45" sqref="B45"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -33835,7 +33826,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="28">
+    <row r="4" spans="1:9" ht="30">
       <c r="A4" s="25"/>
       <c r="B4" s="24"/>
       <c r="C4" s="25" t="s">
@@ -33877,7 +33868,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="28">
+    <row r="6" spans="1:9" ht="30">
       <c r="A6" s="25"/>
       <c r="B6" s="24"/>
       <c r="C6" s="25" t="s">
@@ -33898,7 +33889,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="28">
+    <row r="7" spans="1:9" ht="30">
       <c r="A7" s="25"/>
       <c r="B7" s="24"/>
       <c r="C7" s="25" t="s">
@@ -33919,7 +33910,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28">
+    <row r="8" spans="1:9" ht="30">
       <c r="A8" s="25"/>
       <c r="B8" s="24"/>
       <c r="C8" s="25" t="s">
@@ -33940,7 +33931,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28">
+    <row r="9" spans="1:9" ht="30">
       <c r="A9" s="25"/>
       <c r="B9" s="24"/>
       <c r="C9" s="25" t="s">
@@ -33982,7 +33973,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28">
+    <row r="11" spans="1:9" ht="30">
       <c r="A11" s="25"/>
       <c r="B11" s="24"/>
       <c r="C11" s="25" t="s">
@@ -34024,7 +34015,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" ht="30">
       <c r="A13" s="25"/>
       <c r="B13" s="24"/>
       <c r="C13" s="25" t="s">
@@ -34129,7 +34120,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="28">
+    <row r="18" spans="1:9" ht="30">
       <c r="A18" s="25" t="s">
         <v>731</v>
       </c>
@@ -34158,7 +34149,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28">
+    <row r="19" spans="1:9" ht="30">
       <c r="A19" s="25"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25" t="s">
@@ -34200,7 +34191,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28">
+    <row r="21" spans="1:9" ht="30">
       <c r="A21" s="25"/>
       <c r="B21" s="24"/>
       <c r="C21" s="25" t="s">
@@ -35554,7 +35545,6 @@
     <sheetView topLeftCell="C41" workbookViewId="0">
       <selection activeCell="J72" sqref="J72"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -35595,7 +35585,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28">
+    <row r="2" spans="1:11" ht="30">
       <c r="A2" s="26" t="s">
         <v>784</v>
       </c>
@@ -35645,7 +35635,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="30">
       <c r="A4" s="26" t="s">
         <v>786</v>
       </c>
@@ -35670,7 +35660,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28">
+    <row r="5" spans="1:11" ht="30">
       <c r="A5" s="26" t="s">
         <v>788</v>
       </c>
@@ -35699,7 +35689,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28">
+    <row r="6" spans="1:11" ht="45">
       <c r="A6" s="26" t="s">
         <v>790</v>
       </c>
@@ -35806,7 +35796,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="28">
+    <row r="10" spans="1:11" ht="30">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="24"/>
@@ -35893,7 +35883,7 @@
       </c>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" ht="28">
+    <row r="14" spans="1:11" ht="45">
       <c r="A14" s="26" t="s">
         <v>798</v>
       </c>
@@ -35923,7 +35913,7 @@
       </c>
       <c r="K14" s="10"/>
     </row>
-    <row r="15" spans="1:11" ht="28">
+    <row r="15" spans="1:11" ht="30">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="24"/>
@@ -35945,7 +35935,7 @@
       </c>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:11" ht="28">
+    <row r="16" spans="1:11" ht="30">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="24"/>
@@ -35989,7 +35979,7 @@
       </c>
       <c r="K17" s="10"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="30">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="24"/>
@@ -36033,7 +36023,7 @@
       </c>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" ht="28">
+    <row r="20" spans="1:11" ht="30">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="24"/>
@@ -36055,7 +36045,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" ht="28">
+    <row r="21" spans="1:11" ht="30">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="24"/>
@@ -37441,12 +37431,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF0D163-580A-4FF7-AAB1-247176513E84}">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D83" sqref="D2:D83"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
   <cols>
@@ -37457,7 +37446,7 @@
     <col min="5" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -37469,7 +37458,7 @@
       </c>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" s="1"/>
       <c r="B2" s="10" t="s">
         <v>3</v>
@@ -37482,7 +37471,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="1"/>
       <c r="B3" s="10" t="s">
         <v>6</v>
@@ -37495,7 +37484,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="30">
       <c r="A4" s="1"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
@@ -37508,7 +37497,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="1"/>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -37521,7 +37510,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="15">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
         <v>15</v>
@@ -37534,7 +37523,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="30">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
         <v>18</v>
@@ -37547,7 +37536,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
         <v>21</v>
@@ -37560,7 +37549,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="15">
       <c r="A9" s="1"/>
       <c r="B9" s="10" t="s">
         <v>24</v>
@@ -37573,7 +37562,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="1"/>
       <c r="B10" s="10" t="s">
         <v>26</v>
@@ -37586,7 +37575,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" ht="28">
+    <row r="11" spans="1:5" ht="30">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
         <v>29</v>
@@ -37599,7 +37588,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="15">
       <c r="A12" s="1"/>
       <c r="B12" s="10" t="s">
         <v>32</v>
@@ -37612,7 +37601,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="15">
       <c r="A13" s="1"/>
       <c r="B13" s="10" t="s">
         <v>35</v>
@@ -37625,7 +37614,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="15">
       <c r="A14" s="1"/>
       <c r="B14" s="10" t="s">
         <v>37</v>
@@ -37638,7 +37627,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="15">
       <c r="A15" s="1"/>
       <c r="B15" s="10" t="s">
         <v>40</v>
@@ -37651,7 +37640,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="15">
       <c r="A16" s="1"/>
       <c r="B16" s="10" t="s">
         <v>43</v>
@@ -37664,7 +37653,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="15">
       <c r="A17" s="1"/>
       <c r="B17" s="10" t="s">
         <v>46</v>
@@ -37677,7 +37666,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="30">
       <c r="A18" s="1"/>
       <c r="B18" s="10" t="s">
         <v>49</v>
@@ -37690,7 +37679,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="15">
       <c r="A19" s="1"/>
       <c r="B19" s="10" t="s">
         <v>52</v>
@@ -37703,7 +37692,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="15">
       <c r="A20" s="1"/>
       <c r="B20" s="10" t="s">
         <v>55</v>
@@ -37716,7 +37705,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="15">
       <c r="A21" s="1"/>
       <c r="B21" s="10" t="s">
         <v>58</v>
@@ -37729,7 +37718,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="15">
       <c r="A22" s="1"/>
       <c r="B22" s="10" t="s">
         <v>61</v>
@@ -37742,7 +37731,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="15">
       <c r="A23" s="1"/>
       <c r="B23" s="10" t="s">
         <v>64</v>
@@ -37755,7 +37744,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="15">
       <c r="A24" s="1"/>
       <c r="B24" s="10" t="s">
         <v>67</v>
@@ -37768,7 +37757,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="15">
       <c r="A25" s="1"/>
       <c r="B25" s="10" t="s">
         <v>70</v>
@@ -37781,7 +37770,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="15">
       <c r="A26" s="1"/>
       <c r="B26" s="10" t="s">
         <v>73</v>
@@ -37794,7 +37783,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="30">
       <c r="A27" s="1"/>
       <c r="B27" s="10" t="s">
         <v>76</v>
@@ -37807,7 +37796,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="15">
       <c r="A28" s="1"/>
       <c r="B28" s="10" t="s">
         <v>79</v>
@@ -37820,7 +37809,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="15">
       <c r="A29" s="1"/>
       <c r="B29" s="10" t="s">
         <v>82</v>
@@ -37833,7 +37822,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="15">
       <c r="A30" s="1"/>
       <c r="B30" s="10" t="s">
         <v>85</v>
@@ -37846,7 +37835,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="15">
       <c r="A31" s="1"/>
       <c r="B31" s="10" t="s">
         <v>88</v>
@@ -37859,7 +37848,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="15">
       <c r="A32" s="1"/>
       <c r="B32" s="10" t="s">
         <v>91</v>
@@ -37872,7 +37861,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="15">
       <c r="A33" s="1"/>
       <c r="B33" s="10" t="s">
         <v>94</v>
@@ -37885,7 +37874,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" ht="15">
       <c r="A34" s="1"/>
       <c r="B34" s="10" t="s">
         <v>97</v>
@@ -37898,7 +37887,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" ht="15">
       <c r="A35" s="1"/>
       <c r="B35" s="10" t="s">
         <v>100</v>
@@ -37911,7 +37900,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" ht="15">
       <c r="A36" s="1"/>
       <c r="B36" s="10" t="s">
         <v>103</v>
@@ -37924,7 +37913,7 @@
       </c>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" ht="15">
       <c r="A37" s="1"/>
       <c r="B37" s="10" t="s">
         <v>106</v>
@@ -37937,7 +37926,7 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" ht="15">
       <c r="A38" s="1"/>
       <c r="B38" s="10" t="s">
         <v>109</v>
@@ -37950,7 +37939,7 @@
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" ht="15">
       <c r="A39" s="1"/>
       <c r="B39" s="10" t="s">
         <v>112</v>
@@ -37963,7 +37952,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" ht="15">
       <c r="A40" s="1"/>
       <c r="B40" s="10" t="s">
         <v>115</v>
@@ -39418,6 +39407,17 @@
         <v>449</v>
       </c>
       <c r="E151" s="4"/>
+    </row>
+    <row r="152" spans="1:5" ht="15">
+      <c r="B152" s="10" t="s">
+        <v>3270</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D152" s="10" t="s">
+        <v>1596</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -39431,7 +39431,6 @@
     <sheetView topLeftCell="A78" workbookViewId="0">
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -39496,7 +39495,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28">
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" s="25" t="s">
         <v>9</v>
       </c>
@@ -39538,7 +39537,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="28">
+    <row r="8" spans="1:4" ht="30">
       <c r="A8" s="25" t="s">
         <v>18</v>
       </c>
@@ -39580,7 +39579,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="28">
+    <row r="11" spans="1:4" ht="30">
       <c r="A11" s="25" t="s">
         <v>26</v>
       </c>
@@ -39594,7 +39593,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="28">
+    <row r="12" spans="1:4" ht="30">
       <c r="A12" s="25" t="s">
         <v>29</v>
       </c>
@@ -39720,7 +39719,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="28">
+    <row r="21" spans="1:4" ht="30">
       <c r="A21" s="25" t="s">
         <v>46</v>
       </c>
@@ -39734,7 +39733,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28">
+    <row r="22" spans="1:4" ht="30">
       <c r="A22" s="25" t="s">
         <v>49</v>
       </c>
@@ -39914,7 +39913,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" ht="30">
       <c r="A35" s="25" t="s">
         <v>94</v>
       </c>
@@ -39928,7 +39927,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="28">
+    <row r="36" spans="1:4" ht="30">
       <c r="A36" s="25" t="s">
         <v>97</v>
       </c>
@@ -40110,7 +40109,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="28">
+    <row r="49" spans="1:4" ht="30">
       <c r="A49" s="25" t="s">
         <v>135</v>
       </c>
@@ -40124,7 +40123,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" ht="30">
       <c r="A50" s="25" t="s">
         <v>222</v>
       </c>
@@ -40152,7 +40151,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="28">
+    <row r="52" spans="1:4" ht="30">
       <c r="A52" s="25" t="s">
         <v>141</v>
       </c>
@@ -40166,7 +40165,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" ht="30">
       <c r="A53" s="25" t="s">
         <v>144</v>
       </c>
@@ -40180,7 +40179,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" ht="30">
       <c r="A54" s="25" t="s">
         <v>147</v>
       </c>
@@ -40222,7 +40221,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="28">
+    <row r="57" spans="1:4" ht="30">
       <c r="A57" s="25" t="s">
         <v>156</v>
       </c>
@@ -40236,7 +40235,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="28">
+    <row r="58" spans="1:4" ht="30">
       <c r="A58" s="25" t="s">
         <v>159</v>
       </c>
@@ -40292,7 +40291,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="28">
+    <row r="62" spans="1:4" ht="30">
       <c r="A62" s="25" t="s">
         <v>171</v>
       </c>
@@ -40320,7 +40319,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="28">
+    <row r="64" spans="1:4" ht="30">
       <c r="A64" s="25" t="s">
         <v>177</v>
       </c>
@@ -40488,7 +40487,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" ht="30">
       <c r="A76" s="25" t="s">
         <v>213</v>
       </c>
@@ -40530,7 +40529,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="28">
+    <row r="79" spans="1:4" ht="30">
       <c r="A79" s="25" t="s">
         <v>246</v>
       </c>
@@ -40600,7 +40599,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="28">
+    <row r="84" spans="1:4" ht="30">
       <c r="A84" s="25" t="s">
         <v>264</v>
       </c>
@@ -40614,7 +40613,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="28">
+    <row r="85" spans="1:4" ht="30">
       <c r="A85" s="25" t="s">
         <v>267</v>
       </c>
@@ -40628,7 +40627,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="28">
+    <row r="86" spans="1:4" ht="30">
       <c r="A86" s="25" t="s">
         <v>270</v>
       </c>
@@ -40724,7 +40723,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="32">
+    <row r="93" spans="1:4" ht="45">
       <c r="A93" s="25" t="s">
         <v>288</v>
       </c>
@@ -41536,7 +41535,6 @@
     <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="D137" sqref="B1:D179"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
@@ -41638,7 +41636,7 @@
       </c>
       <c r="E7" s="10"/>
     </row>
-    <row r="8" spans="1:5" ht="28">
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="9"/>
       <c r="B8" s="10" t="s">
         <v>465</v>
@@ -41716,7 +41714,7 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5" ht="28">
+    <row r="14" spans="1:5" ht="30">
       <c r="A14" s="9"/>
       <c r="B14" s="10" t="s">
         <v>480</v>
@@ -41859,7 +41857,7 @@
       </c>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="30">
       <c r="A25" s="9"/>
       <c r="B25" s="10" t="s">
         <v>508</v>
@@ -41872,7 +41870,7 @@
       </c>
       <c r="E25" s="10"/>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="30">
       <c r="A26" s="9"/>
       <c r="B26" s="10" t="s">
         <v>511</v>
@@ -42197,7 +42195,7 @@
       </c>
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="1:5" ht="28">
+    <row r="51" spans="1:5" ht="30">
       <c r="A51" s="9"/>
       <c r="B51" s="10" t="s">
         <v>555</v>
@@ -42340,7 +42338,7 @@
       </c>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" ht="30">
       <c r="A62" s="9"/>
       <c r="B62" s="10" t="s">
         <v>579</v>
@@ -42496,7 +42494,7 @@
       </c>
       <c r="E73" s="10"/>
     </row>
-    <row r="74" spans="1:5" ht="28">
+    <row r="74" spans="1:5" ht="30">
       <c r="A74" s="9"/>
       <c r="B74" s="10" t="s">
         <v>613</v>
@@ -42587,7 +42585,7 @@
       </c>
       <c r="E80" s="10"/>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" ht="30">
       <c r="A81" s="9"/>
       <c r="B81" s="10" t="s">
         <v>631</v>
@@ -42652,7 +42650,7 @@
       </c>
       <c r="E85" s="10"/>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" ht="30">
       <c r="A86" s="9"/>
       <c r="B86" s="10" t="s">
         <v>644</v>
@@ -42769,7 +42767,7 @@
       </c>
       <c r="E94" s="10"/>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" ht="30">
       <c r="A95" s="9"/>
       <c r="B95" s="10" t="s">
         <v>669</v>
@@ -42821,7 +42819,7 @@
       </c>
       <c r="E98" s="10"/>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" ht="30">
       <c r="A99" s="9"/>
       <c r="B99" s="10" t="s">
         <v>678</v>
@@ -42977,7 +42975,7 @@
       </c>
       <c r="E110" s="10"/>
     </row>
-    <row r="111" spans="1:5" ht="28">
+    <row r="111" spans="1:5" ht="30">
       <c r="A111" s="9"/>
       <c r="B111" s="10" t="s">
         <v>705</v>
@@ -43081,7 +43079,7 @@
       </c>
       <c r="E118" s="10"/>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" ht="30">
       <c r="A119" s="9"/>
       <c r="B119" s="10" t="s">
         <v>727</v>
@@ -43107,7 +43105,7 @@
       </c>
       <c r="E120" s="10"/>
     </row>
-    <row r="121" spans="1:5" ht="28">
+    <row r="121" spans="1:5" ht="30">
       <c r="A121" s="9"/>
       <c r="B121" s="10" t="s">
         <v>731</v>
@@ -43133,7 +43131,7 @@
       </c>
       <c r="E122" s="10"/>
     </row>
-    <row r="123" spans="1:5" ht="28">
+    <row r="123" spans="1:5" ht="30">
       <c r="A123" s="9"/>
       <c r="B123" s="10" t="s">
         <v>735</v>
@@ -43185,7 +43183,7 @@
       </c>
       <c r="E126" s="10"/>
     </row>
-    <row r="127" spans="1:5" ht="28">
+    <row r="127" spans="1:5" ht="30">
       <c r="A127" s="9"/>
       <c r="B127" s="10" t="s">
         <v>743</v>
@@ -43224,7 +43222,7 @@
       </c>
       <c r="E129" s="10"/>
     </row>
-    <row r="130" spans="1:5" ht="28">
+    <row r="130" spans="1:5" ht="30">
       <c r="A130" s="9"/>
       <c r="B130" s="10" t="s">
         <v>752</v>
@@ -43276,7 +43274,7 @@
       </c>
       <c r="E133" s="10"/>
     </row>
-    <row r="134" spans="1:5" ht="28">
+    <row r="134" spans="1:5" ht="30">
       <c r="A134" s="9"/>
       <c r="B134" s="10" t="s">
         <v>763</v>
@@ -43315,7 +43313,7 @@
       </c>
       <c r="E136" s="10"/>
     </row>
-    <row r="137" spans="1:5" ht="28">
+    <row r="137" spans="1:5" ht="30">
       <c r="A137" s="9"/>
       <c r="B137" s="10" t="s">
         <v>770</v>
@@ -43328,7 +43326,7 @@
       </c>
       <c r="E137" s="10"/>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" ht="30">
       <c r="A138" s="9"/>
       <c r="B138" s="10" t="s">
         <v>773</v>
@@ -43886,7 +43884,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -43993,7 +43990,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16">
+    <row r="8" spans="1:4" ht="30">
       <c r="A8" s="25" t="s">
         <v>465</v>
       </c>
@@ -44077,7 +44074,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28">
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" s="25" t="s">
         <v>480</v>
       </c>
@@ -44231,7 +44228,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="16">
+    <row r="25" spans="1:4" ht="30">
       <c r="A25" s="25" t="s">
         <v>508</v>
       </c>
@@ -46420,12 +46417,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC925B1-2EBA-403C-B6B7-CB6A0F3D3243}">
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:F191"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D191" sqref="C190:D191"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
@@ -46513,7 +46509,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="28">
+    <row r="7" spans="1:6" ht="30">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
         <v>459</v>
@@ -46565,7 +46561,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="28">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="1"/>
       <c r="B11" s="10" t="s">
         <v>884</v>
@@ -46604,7 +46600,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="28">
+    <row r="14" spans="1:6" ht="30">
       <c r="A14" s="1"/>
       <c r="B14" s="10" t="s">
         <v>893</v>
@@ -46786,7 +46782,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="30">
       <c r="A28" s="1"/>
       <c r="B28" s="10" t="s">
         <v>487</v>
@@ -47176,7 +47172,7 @@
       </c>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" ht="30">
       <c r="A58" s="1"/>
       <c r="B58" s="10" t="s">
         <v>596</v>
@@ -47280,7 +47276,7 @@
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" ht="30">
       <c r="A66" s="1"/>
       <c r="B66" s="10" t="s">
         <v>620</v>
@@ -47319,7 +47315,7 @@
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" ht="30">
       <c r="A69" s="1"/>
       <c r="B69" s="10" t="s">
         <v>151</v>
@@ -47930,7 +47926,7 @@
       </c>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="1:5" ht="28">
+    <row r="116" spans="1:5" ht="30">
       <c r="A116" s="1"/>
       <c r="B116" s="10" t="s">
         <v>403</v>
@@ -48021,7 +48017,7 @@
       </c>
       <c r="E122" s="2"/>
     </row>
-    <row r="123" spans="1:5" ht="28">
+    <row r="123" spans="1:5" ht="30">
       <c r="A123" s="1"/>
       <c r="B123" s="10" t="s">
         <v>857</v>
@@ -48112,7 +48108,7 @@
       </c>
       <c r="E129" s="2"/>
     </row>
-    <row r="130" spans="1:5" ht="28">
+    <row r="130" spans="1:5" ht="30">
       <c r="A130" s="1"/>
       <c r="B130" s="10" t="s">
         <v>1286</v>
@@ -48125,7 +48121,7 @@
       </c>
       <c r="E130" s="2"/>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" ht="30">
       <c r="A131" s="1"/>
       <c r="B131" s="10" t="s">
         <v>1288</v>
@@ -48138,7 +48134,7 @@
       </c>
       <c r="E131" s="4"/>
     </row>
-    <row r="132" spans="1:5" ht="28">
+    <row r="132" spans="1:5" ht="30">
       <c r="A132" s="1"/>
       <c r="B132" s="10" t="s">
         <v>247</v>
@@ -48164,7 +48160,7 @@
       </c>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="1:5" ht="28">
+    <row r="134" spans="1:5" ht="30">
       <c r="A134" s="1"/>
       <c r="B134" s="10" t="s">
         <v>1102</v>
@@ -48177,7 +48173,7 @@
       </c>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="1:5" ht="28">
+    <row r="135" spans="1:5" ht="30">
       <c r="A135" s="1"/>
       <c r="B135" s="10" t="s">
         <v>1105</v>
@@ -48190,7 +48186,7 @@
       </c>
       <c r="E135" s="2"/>
     </row>
-    <row r="136" spans="1:5" ht="28">
+    <row r="136" spans="1:5" ht="30">
       <c r="A136" s="1"/>
       <c r="B136" s="10" t="s">
         <v>1108</v>
@@ -48203,7 +48199,7 @@
       </c>
       <c r="E136" s="2"/>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" ht="30">
       <c r="A137" s="1"/>
       <c r="B137" s="10" t="s">
         <v>250</v>
@@ -48229,7 +48225,7 @@
       </c>
       <c r="E138" s="2"/>
     </row>
-    <row r="139" spans="1:5" ht="28">
+    <row r="139" spans="1:5" ht="30">
       <c r="A139" s="1"/>
       <c r="B139" s="10" t="s">
         <v>256</v>
@@ -48333,7 +48329,7 @@
       </c>
       <c r="E146" s="2"/>
     </row>
-    <row r="147" spans="1:5" ht="28">
+    <row r="147" spans="1:5" ht="30">
       <c r="A147" s="1"/>
       <c r="B147" s="10" t="s">
         <v>307</v>
@@ -48359,7 +48355,7 @@
       </c>
       <c r="E148" s="2"/>
     </row>
-    <row r="149" spans="1:5" ht="28">
+    <row r="149" spans="1:5" ht="30">
       <c r="A149" s="1"/>
       <c r="B149" s="10" t="s">
         <v>1145</v>
@@ -48372,7 +48368,7 @@
       </c>
       <c r="E149" s="2"/>
     </row>
-    <row r="150" spans="1:5" ht="28">
+    <row r="150" spans="1:5" ht="30">
       <c r="A150" s="1"/>
       <c r="B150" s="10" t="s">
         <v>1148</v>
@@ -48385,7 +48381,7 @@
       </c>
       <c r="E150" s="2"/>
     </row>
-    <row r="151" spans="1:5" ht="28">
+    <row r="151" spans="1:5" ht="30">
       <c r="A151" s="1"/>
       <c r="B151" s="10" t="s">
         <v>1151</v>
@@ -48904,6 +48900,17 @@
         <v>1212</v>
       </c>
       <c r="E190" s="2"/>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="B191" s="10" t="s">
+        <v>780</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="D191" s="10" t="s">
+        <v>834</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F190" xr:uid="{FCC925B1-2EBA-403C-B6B7-CB6A0F3D3243}">
@@ -48922,7 +48929,6 @@
     <sheetView topLeftCell="A114" workbookViewId="0">
       <selection activeCell="C121" sqref="C121"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>

--- a/ETL/vietnames_to_fiin.xlsx
+++ b/ETL/vietnames_to_fiin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanghung20gg/code/fs_chatbot/chatbot_financial_statement/ETL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8132F1E7-A054-934D-BBC2-4523C7BFAEA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921D0B74-4670-9342-A464-EEC14A152A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="1000" windowWidth="29900" windowHeight="19500" activeTab="1" xr2:uid="{181F491C-CE5D-4C83-A516-210AAAD12FF4}"/>
+    <workbookView xWindow="3520" yWindow="7360" windowWidth="29900" windowHeight="19500" xr2:uid="{181F491C-CE5D-4C83-A516-210AAAD12FF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard BS" sheetId="4" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7991" uniqueCount="3280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7999" uniqueCount="3283">
   <si>
     <t>vi_caption</t>
   </si>
@@ -9893,6 +9893,15 @@
   </si>
   <si>
     <t>IS_057</t>
+  </si>
+  <si>
+    <t>Dư nợ tín dụng</t>
+  </si>
+  <si>
+    <t>Outstanding Credit Balance</t>
+  </si>
+  <si>
+    <t>(Bank) Outstanding Credit Balance</t>
   </si>
 </sst>
 </file>
@@ -10126,7 +10135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
@@ -10332,6 +10341,9 @@
     </xf>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10668,10 +10680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307A6ABC-3A3C-4C09-AD45-41F3BF098C47}">
-  <dimension ref="A1:J190"/>
+  <dimension ref="A1:J191"/>
   <sheetViews>
-    <sheetView topLeftCell="A168" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G109" sqref="G109"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11306,93 +11318,90 @@
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>888</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>887</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="21"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="25" t="s">
+        <v>518</v>
+      </c>
       <c r="G28" s="16" t="s">
-        <v>1526</v>
+        <v>3282</v>
       </c>
       <c r="H28" s="24" t="s">
-        <v>22</v>
+        <v>484</v>
       </c>
       <c r="I28" s="24" t="s">
-        <v>22</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="16" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E29" s="19"/>
       <c r="F29" s="21"/>
       <c r="G29" s="16" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="H29" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I29" s="24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="28">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
+      <c r="B30" s="37" t="s">
+        <v>13</v>
+      </c>
       <c r="C30" s="16" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E30" s="19"/>
       <c r="F30" s="21"/>
-      <c r="G30" s="19" t="s">
-        <v>1527</v>
+      <c r="G30" s="16" t="s">
+        <v>474</v>
       </c>
       <c r="H30" s="24" t="s">
-        <v>1528</v>
+        <v>25</v>
       </c>
       <c r="I30" s="24" t="s">
-        <v>1528</v>
-      </c>
-      <c r="J30" s="10"/>
-    </row>
-    <row r="31" spans="1:10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="28">
       <c r="A31" s="16"/>
       <c r="B31" s="17"/>
       <c r="C31" s="16" t="s">
-        <v>2097</v>
-      </c>
-      <c r="D31" s="31" t="s">
-        <v>2081</v>
+        <v>894</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>893</v>
       </c>
       <c r="E31" s="19"/>
       <c r="F31" s="21"/>
       <c r="G31" s="19" t="s">
-        <v>2098</v>
+        <v>1527</v>
       </c>
       <c r="H31" s="24" t="s">
-        <v>2099</v>
+        <v>1528</v>
       </c>
       <c r="I31" s="24" t="s">
         <v>1528</v>
@@ -11403,18 +11412,18 @@
       <c r="A32" s="16"/>
       <c r="B32" s="17"/>
       <c r="C32" s="16" t="s">
-        <v>897</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>896</v>
+        <v>2097</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>2081</v>
       </c>
       <c r="E32" s="19"/>
       <c r="F32" s="21"/>
       <c r="G32" s="19" t="s">
-        <v>1529</v>
+        <v>2098</v>
       </c>
       <c r="H32" s="24" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="I32" s="24" t="s">
         <v>1528</v>
@@ -11422,261 +11431,261 @@
       <c r="J32" s="10"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>16</v>
-      </c>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="16" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E33" s="19"/>
       <c r="F33" s="21"/>
-      <c r="G33" s="16" t="s">
+      <c r="G33" s="19" t="s">
+        <v>1529</v>
+      </c>
+      <c r="H33" s="24" t="s">
+        <v>2100</v>
+      </c>
+      <c r="I33" s="24" t="s">
+        <v>1528</v>
+      </c>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="H33" s="24" t="s">
-        <v>1530</v>
-      </c>
-      <c r="I33" s="24" t="s">
-        <v>1530</v>
-      </c>
-      <c r="J33" s="10"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
+      <c r="B34" s="38" t="s">
+        <v>16</v>
+      </c>
       <c r="C34" s="16" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E34" s="19"/>
       <c r="F34" s="21"/>
-      <c r="G34" s="19" t="s">
-        <v>1531</v>
+      <c r="G34" s="16" t="s">
+        <v>476</v>
       </c>
       <c r="H34" s="24" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="I34" s="24" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="J34" s="10"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>478</v>
-      </c>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="16" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>7</v>
+        <v>902</v>
       </c>
       <c r="E35" s="19"/>
       <c r="F35" s="21"/>
       <c r="G35" s="19" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="H35" s="24" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="I35" s="24" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="J35" s="10"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>481</v>
-      </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="18"/>
+        <v>479</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>905</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>7</v>
+      </c>
       <c r="E36" s="19"/>
       <c r="F36" s="21"/>
-      <c r="G36" s="16" t="s">
+      <c r="G36" s="19" t="s">
+        <v>1533</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>1534</v>
+      </c>
+      <c r="I36" s="24" t="s">
+        <v>1534</v>
+      </c>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="H36" s="24" t="s">
-        <v>1535</v>
-      </c>
-      <c r="I36" s="24" t="s">
-        <v>1535</v>
-      </c>
-      <c r="J36" s="10"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="16"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="16" t="s">
-        <v>907</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>464</v>
-      </c>
+      <c r="B37" s="38" t="s">
+        <v>481</v>
+      </c>
+      <c r="C37" s="16"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="19"/>
       <c r="F37" s="21"/>
-      <c r="G37" s="19" t="s">
-        <v>1536</v>
+      <c r="G37" s="16" t="s">
+        <v>482</v>
       </c>
       <c r="H37" s="24" t="s">
-        <v>27</v>
+        <v>1535</v>
       </c>
       <c r="I37" s="24" t="s">
-        <v>27</v>
+        <v>1535</v>
       </c>
       <c r="J37" s="10"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>484</v>
-      </c>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
       <c r="C38" s="16" t="s">
-        <v>879</v>
+        <v>907</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>878</v>
+        <v>464</v>
       </c>
       <c r="E38" s="19"/>
       <c r="F38" s="21"/>
       <c r="G38" s="19" t="s">
-        <v>485</v>
+        <v>1536</v>
       </c>
       <c r="H38" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I38" s="24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J38" s="10"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>487</v>
+        <v>485</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>484</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>909</v>
+        <v>879</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>466</v>
+        <v>878</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="21"/>
-      <c r="G39" s="16" t="s">
-        <v>488</v>
+      <c r="G39" s="19" t="s">
+        <v>485</v>
       </c>
       <c r="H39" s="24" t="s">
-        <v>503</v>
+        <v>30</v>
       </c>
       <c r="I39" s="24" t="s">
-        <v>503</v>
+        <v>30</v>
       </c>
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="16" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="D40" s="25" t="s">
-        <v>911</v>
+        <v>466</v>
       </c>
       <c r="E40" s="19"/>
       <c r="F40" s="21"/>
       <c r="G40" s="16" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H40" s="24" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="I40" s="24" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="16"/>
-      <c r="D41" s="18"/>
+        <v>490</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>912</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>911</v>
+      </c>
       <c r="E41" s="19"/>
       <c r="F41" s="21"/>
       <c r="G41" s="16" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H41" s="24" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="I41" s="24" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>22</v>
+        <v>493</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>19</v>
       </c>
       <c r="C42" s="16"/>
       <c r="D42" s="18"/>
       <c r="E42" s="19"/>
       <c r="F42" s="21"/>
       <c r="G42" s="16" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>33</v>
+        <v>509</v>
       </c>
       <c r="I42" s="24" t="s">
-        <v>33</v>
+        <v>509</v>
       </c>
       <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>25</v>
+        <v>495</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>22</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="18"/>
       <c r="E43" s="19"/>
       <c r="F43" s="21"/>
       <c r="G43" s="16" t="s">
-        <v>1537</v>
+        <v>497</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I43" s="24" t="s">
         <v>33</v>
@@ -11685,20 +11694,20 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="16" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="18"/>
       <c r="E44" s="19"/>
       <c r="F44" s="21"/>
       <c r="G44" s="16" t="s">
-        <v>499</v>
+        <v>1537</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>1538</v>
+        <v>36</v>
       </c>
       <c r="I44" s="24" t="s">
         <v>33</v>
@@ -11707,49 +11716,49 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="16" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>914</v>
-      </c>
-      <c r="D45" s="25" t="s">
-        <v>10</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C45" s="16"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="19"/>
       <c r="F45" s="21"/>
       <c r="G45" s="16" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>41</v>
+        <v>1538</v>
       </c>
       <c r="I45" s="24" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J45" s="10"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="16"/>
-      <c r="B46" s="38"/>
+      <c r="A46" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="B46" s="38" t="s">
+        <v>30</v>
+      </c>
       <c r="C46" s="16" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="D46" s="25" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="19"/>
       <c r="F46" s="21"/>
       <c r="G46" s="16" t="s">
-        <v>1539</v>
+        <v>516</v>
       </c>
       <c r="H46" s="24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I46" s="24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J46" s="10"/>
     </row>
@@ -11757,21 +11766,21 @@
       <c r="A47" s="16"/>
       <c r="B47" s="38"/>
       <c r="C47" s="16" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="D47" s="25" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E47" s="19"/>
       <c r="F47" s="21"/>
       <c r="G47" s="16" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="H47" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I47" s="24" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J47" s="10"/>
     </row>
@@ -11779,248 +11788,244 @@
       <c r="A48" s="16"/>
       <c r="B48" s="38"/>
       <c r="C48" s="16" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="D48" s="25" t="s">
-        <v>481</v>
+        <v>16</v>
       </c>
       <c r="E48" s="19"/>
       <c r="F48" s="21"/>
       <c r="G48" s="16" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="H48" s="24" t="s">
-        <v>1541</v>
+        <v>47</v>
       </c>
       <c r="I48" s="24" t="s">
-        <v>1541</v>
+        <v>47</v>
       </c>
       <c r="J48" s="10"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="16" t="s">
-        <v>504</v>
-      </c>
-      <c r="B49" s="37" t="s">
-        <v>503</v>
-      </c>
+      <c r="A49" s="16"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="16" t="s">
-        <v>920</v>
+        <v>922</v>
       </c>
       <c r="D49" s="25" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E49" s="19"/>
       <c r="F49" s="21"/>
       <c r="G49" s="16" t="s">
-        <v>504</v>
+        <v>1542</v>
       </c>
       <c r="H49" s="24" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="I49" s="24" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="J49" s="10"/>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="B50" s="38" t="s">
-        <v>506</v>
+        <v>504</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>503</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="D50" s="25" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="E50" s="19"/>
       <c r="F50" s="21"/>
       <c r="G50" s="16" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H50" s="24" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="I50" s="24" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="J50" s="10"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="16" t="s">
-        <v>510</v>
-      </c>
-      <c r="B51" s="37" t="s">
-        <v>509</v>
+        <v>507</v>
+      </c>
+      <c r="B51" s="38" t="s">
+        <v>506</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="D51" s="25" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E51" s="19"/>
       <c r="F51" s="21"/>
       <c r="G51" s="16" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H51" s="24" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="I51" s="24" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="J51" s="10"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="B52" s="38" t="s">
-        <v>512</v>
+        <v>510</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>509</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>513</v>
-      </c>
-      <c r="D52" s="31" t="s">
-        <v>2085</v>
+        <v>926</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>487</v>
       </c>
       <c r="E52" s="19"/>
       <c r="F52" s="21"/>
       <c r="G52" s="16" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H52" s="24" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="I52" s="24" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="J52" s="10"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="16" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>928</v>
-      </c>
-      <c r="D53" s="25" t="s">
-        <v>490</v>
+        <v>513</v>
+      </c>
+      <c r="D53" s="31" t="s">
+        <v>2085</v>
       </c>
       <c r="E53" s="19"/>
       <c r="F53" s="21"/>
       <c r="G53" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>1546</v>
+      </c>
+      <c r="I53" s="24" t="s">
+        <v>1546</v>
+      </c>
+      <c r="J53" s="10"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="H53" s="24" t="s">
-        <v>1547</v>
-      </c>
-      <c r="I53" s="24" t="s">
-        <v>1547</v>
-      </c>
-      <c r="J53" s="10"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="16"/>
-      <c r="B54" s="38"/>
+      <c r="B54" s="38" t="s">
+        <v>515</v>
+      </c>
       <c r="C54" s="16" t="s">
-        <v>2101</v>
-      </c>
-      <c r="D54" s="31" t="s">
-        <v>19</v>
+        <v>928</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>490</v>
       </c>
       <c r="E54" s="19"/>
       <c r="F54" s="21"/>
       <c r="G54" s="16" t="s">
-        <v>2102</v>
+        <v>516</v>
       </c>
       <c r="H54" s="24" t="s">
-        <v>50</v>
+        <v>1547</v>
       </c>
       <c r="I54" s="24" t="s">
-        <v>50</v>
+        <v>1547</v>
       </c>
       <c r="J54" s="10"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="B55" s="38" t="s">
-        <v>518</v>
-      </c>
+      <c r="A55" s="16"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D55" s="25" t="s">
-        <v>518</v>
+        <v>2101</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>19</v>
       </c>
       <c r="E55" s="19"/>
       <c r="F55" s="21"/>
       <c r="G55" s="16" t="s">
-        <v>519</v>
+        <v>2102</v>
       </c>
       <c r="H55" s="24" t="s">
-        <v>518</v>
+        <v>50</v>
       </c>
       <c r="I55" s="24" t="s">
-        <v>518</v>
+        <v>50</v>
       </c>
       <c r="J55" s="10"/>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="16" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>62</v>
+        <v>518</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>930</v>
+        <v>519</v>
       </c>
       <c r="D56" s="25" t="s">
-        <v>62</v>
+        <v>518</v>
       </c>
       <c r="E56" s="19"/>
       <c r="F56" s="21"/>
       <c r="G56" s="16" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H56" s="24" t="s">
-        <v>62</v>
+        <v>518</v>
       </c>
       <c r="I56" s="24" t="s">
-        <v>62</v>
+        <v>518</v>
       </c>
       <c r="J56" s="10"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="16" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E57" s="19"/>
       <c r="F57" s="21"/>
       <c r="G57" s="16" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="H57" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I57" s="24" t="s">
         <v>62</v>
@@ -12029,20 +12034,24 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="16" t="s">
-        <v>525</v>
-      </c>
-      <c r="B58" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C58" s="24"/>
-      <c r="D58" s="39"/>
+        <v>523</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>932</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>65</v>
+      </c>
       <c r="E58" s="19"/>
       <c r="F58" s="21"/>
       <c r="G58" s="16" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H58" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I58" s="24" t="s">
         <v>62</v>
@@ -12051,20 +12060,20 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="16" t="s">
-        <v>527</v>
-      </c>
-      <c r="B59" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="24"/>
+        <v>525</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="19"/>
       <c r="F59" s="21"/>
       <c r="G59" s="16" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H59" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I59" s="24" t="s">
         <v>62</v>
@@ -12073,20 +12082,20 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="16" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="18"/>
-      <c r="E60" s="19"/>
+      <c r="E60" s="24"/>
       <c r="F60" s="21"/>
       <c r="G60" s="16" t="s">
-        <v>1548</v>
+        <v>527</v>
       </c>
       <c r="H60" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I60" s="24" t="s">
         <v>62</v>
@@ -12095,20 +12104,20 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="16" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>531</v>
+        <v>74</v>
       </c>
       <c r="C61" s="16"/>
       <c r="D61" s="18"/>
       <c r="E61" s="19"/>
       <c r="F61" s="21"/>
       <c r="G61" s="16" t="s">
-        <v>532</v>
+        <v>1548</v>
       </c>
       <c r="H61" s="24" t="s">
-        <v>531</v>
+        <v>74</v>
       </c>
       <c r="I61" s="24" t="s">
         <v>62</v>
@@ -12117,20 +12126,20 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="B62" s="25" t="s">
-        <v>534</v>
+        <v>532</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>531</v>
       </c>
       <c r="C62" s="16"/>
       <c r="D62" s="18"/>
       <c r="E62" s="19"/>
       <c r="F62" s="21"/>
       <c r="G62" s="16" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H62" s="24" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="I62" s="24" t="s">
         <v>62</v>
@@ -12139,20 +12148,20 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>77</v>
+        <v>534</v>
       </c>
       <c r="C63" s="16"/>
       <c r="D63" s="18"/>
       <c r="E63" s="19"/>
       <c r="F63" s="21"/>
       <c r="G63" s="16" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H63" s="24" t="s">
-        <v>1549</v>
+        <v>534</v>
       </c>
       <c r="I63" s="24" t="s">
         <v>62</v>
@@ -12161,88 +12170,80 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="16" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B64" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>948</v>
-      </c>
-      <c r="D64" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="F64" s="25" t="s">
-        <v>80</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C64" s="16"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="21"/>
       <c r="G64" s="16" t="s">
-        <v>81</v>
+        <v>537</v>
       </c>
       <c r="H64" s="24" t="s">
-        <v>80</v>
+        <v>1549</v>
       </c>
       <c r="I64" s="24" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="J64" s="10"/>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="16" t="s">
-        <v>84</v>
+        <v>539</v>
       </c>
       <c r="B65" s="25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="D65" s="25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F65" s="25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G65" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H65" s="24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I65" s="24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J65" s="10"/>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="16" t="s">
-        <v>542</v>
+        <v>84</v>
       </c>
       <c r="B66" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D66" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F66" s="25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G66" s="16" t="s">
-        <v>1550</v>
+        <v>84</v>
       </c>
       <c r="H66" s="24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I66" s="24" t="s">
         <v>83</v>
@@ -12251,28 +12252,28 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B67" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>544</v>
+        <v>951</v>
       </c>
       <c r="D67" s="25" t="s">
-        <v>952</v>
+        <v>86</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F67" s="25" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="H67" s="24" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I67" s="24" t="s">
         <v>83</v>
@@ -12281,54 +12282,56 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B68" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" s="19"/>
-      <c r="D68" s="31" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>952</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F68" s="25" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>546</v>
+        <v>1551</v>
       </c>
       <c r="H68" s="24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I68" s="24" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J68" s="10"/>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="16" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B69" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F69" s="25" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>1552</v>
+        <v>546</v>
       </c>
       <c r="H69" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I69" s="24" t="s">
         <v>92</v>
@@ -12337,26 +12340,26 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B70" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F70" s="25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="H70" s="24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I70" s="24" t="s">
         <v>92</v>
@@ -12365,58 +12368,56 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="16" t="s">
-        <v>102</v>
+        <v>544</v>
       </c>
       <c r="B71" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>953</v>
-      </c>
-      <c r="D71" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="C71" s="19"/>
+      <c r="D71" s="31" t="s">
+        <v>98</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F71" s="25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G71" s="16" t="s">
-        <v>102</v>
+        <v>1553</v>
       </c>
       <c r="H71" s="24" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I71" s="24" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="J71" s="10"/>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="16" t="s">
-        <v>542</v>
+        <v>102</v>
       </c>
       <c r="B72" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="D72" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F72" s="25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G72" s="16" t="s">
-        <v>1554</v>
+        <v>102</v>
       </c>
       <c r="H72" s="24" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I72" s="24" t="s">
         <v>101</v>
@@ -12425,28 +12426,28 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B73" s="25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>544</v>
+        <v>951</v>
       </c>
       <c r="D73" s="25" t="s">
-        <v>954</v>
+        <v>104</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F73" s="25" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="H73" s="24" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="I73" s="24" t="s">
         <v>101</v>
@@ -12455,58 +12456,58 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="16" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B74" s="25" t="s">
-        <v>549</v>
+        <v>107</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>955</v>
+        <v>544</v>
       </c>
       <c r="D74" s="25" t="s">
-        <v>549</v>
+        <v>954</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F74" s="25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>111</v>
+        <v>1555</v>
       </c>
       <c r="H74" s="24" t="s">
-        <v>549</v>
+        <v>107</v>
       </c>
       <c r="I74" s="24" t="s">
-        <v>549</v>
+        <v>101</v>
       </c>
       <c r="J74" s="10"/>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="16" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>951</v>
+        <v>955</v>
       </c>
       <c r="D75" s="25" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F75" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>1556</v>
+        <v>111</v>
       </c>
       <c r="H75" s="24" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I75" s="24" t="s">
         <v>549</v>
@@ -12515,28 +12516,28 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B76" s="25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>544</v>
+        <v>951</v>
       </c>
       <c r="D76" s="25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F76" s="25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="H76" s="24" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I76" s="24" t="s">
         <v>549</v>
@@ -12545,42 +12546,50 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="16" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="B77" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C77" s="16"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="21"/>
+        <v>552</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="D77" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F77" s="25" t="s">
+        <v>116</v>
+      </c>
       <c r="G77" s="16" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="H77" s="24" t="s">
-        <v>110</v>
+        <v>552</v>
       </c>
       <c r="I77" s="24" t="s">
-        <v>110</v>
+        <v>549</v>
       </c>
       <c r="J77" s="10"/>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="16" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B78" s="25" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C78" s="16"/>
       <c r="D78" s="18"/>
       <c r="E78" s="19"/>
       <c r="F78" s="21"/>
       <c r="G78" s="16" t="s">
-        <v>556</v>
+        <v>1558</v>
       </c>
       <c r="H78" s="24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I78" s="24" t="s">
         <v>110</v>
@@ -12589,24 +12598,20 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="16" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B79" s="25" t="s">
-        <v>116</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>957</v>
-      </c>
-      <c r="D79" s="25" t="s">
-        <v>110</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C79" s="16"/>
+      <c r="D79" s="18"/>
       <c r="E79" s="19"/>
       <c r="F79" s="21"/>
       <c r="G79" s="16" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H79" s="24" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="I79" s="24" t="s">
         <v>110</v>
@@ -12615,58 +12620,54 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="16" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B80" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>934</v>
+        <v>957</v>
       </c>
       <c r="D80" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F80" s="25" t="s">
-        <v>62</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="E80" s="19"/>
+      <c r="F80" s="21"/>
       <c r="G80" s="16" t="s">
-        <v>1559</v>
+        <v>558</v>
       </c>
       <c r="H80" s="24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I80" s="24" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="J80" s="10"/>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="16" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B81" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="D81" s="25" t="s">
-        <v>939</v>
+        <v>68</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F81" s="25" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="H81" s="24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I81" s="24" t="s">
         <v>119</v>
@@ -12675,28 +12676,28 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="16" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B82" s="25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D82" s="25" t="s">
-        <v>942</v>
-      </c>
-      <c r="E82" s="40" t="s">
-        <v>564</v>
-      </c>
-      <c r="F82" s="41" t="s">
-        <v>1561</v>
+        <v>939</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>65</v>
       </c>
       <c r="G82" s="16" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="H82" s="24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I82" s="24" t="s">
         <v>119</v>
@@ -12704,21 +12705,29 @@
       <c r="J82" s="10"/>
     </row>
     <row r="83" spans="1:10">
-      <c r="A83" s="16"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F83" s="25" t="s">
-        <v>68</v>
+      <c r="A83" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>943</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>942</v>
+      </c>
+      <c r="E83" s="40" t="s">
+        <v>564</v>
+      </c>
+      <c r="F83" s="41" t="s">
+        <v>1561</v>
       </c>
       <c r="G83" s="16" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="H83" s="24" t="s">
-        <v>1564</v>
+        <v>125</v>
       </c>
       <c r="I83" s="24" t="s">
         <v>119</v>
@@ -12731,16 +12740,16 @@
       <c r="C84" s="16"/>
       <c r="D84" s="18"/>
       <c r="E84" s="16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F84" s="25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G84" s="16" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="H84" s="24" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="I84" s="24" t="s">
         <v>119</v>
@@ -12748,29 +12757,21 @@
       <c r="J84" s="10"/>
     </row>
     <row r="85" spans="1:10">
-      <c r="A85" s="16" t="s">
-        <v>566</v>
-      </c>
-      <c r="B85" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>946</v>
-      </c>
-      <c r="D85" s="25" t="s">
-        <v>945</v>
-      </c>
+      <c r="A85" s="16"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="18"/>
       <c r="E85" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F85" s="25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>75</v>
+        <v>1565</v>
       </c>
       <c r="H85" s="24" t="s">
-        <v>128</v>
+        <v>1566</v>
       </c>
       <c r="I85" s="24" t="s">
         <v>119</v>
@@ -12779,24 +12780,28 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="16" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B86" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="C86" s="16"/>
-      <c r="D86" s="18"/>
+        <v>128</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>946</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>945</v>
+      </c>
       <c r="E86" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F86" s="25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G86" s="16" t="s">
-        <v>568</v>
+        <v>75</v>
       </c>
       <c r="H86" s="24" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I86" s="24" t="s">
         <v>119</v>
@@ -12805,24 +12810,24 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="16" t="s">
-        <v>470</v>
+        <v>568</v>
       </c>
       <c r="B87" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>937</v>
-      </c>
-      <c r="D87" s="25" t="s">
-        <v>936</v>
-      </c>
-      <c r="E87" s="19"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="19" t="s">
-        <v>1567</v>
+        <v>131</v>
+      </c>
+      <c r="C87" s="16"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F87" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>568</v>
       </c>
       <c r="H87" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I87" s="24" t="s">
         <v>119</v>
@@ -12831,50 +12836,54 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>937</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>936</v>
+      </c>
+      <c r="E88" s="19"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="19" t="s">
+        <v>1567</v>
+      </c>
+      <c r="H88" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="I88" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="J88" s="10"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="B88" s="25" t="s">
+      <c r="B89" s="25" t="s">
         <v>571</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C89" s="16" t="s">
         <v>959</v>
       </c>
-      <c r="D88" s="25" t="s">
+      <c r="D89" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="E88" s="16" t="s">
+      <c r="E89" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="F88" s="25" t="s">
+      <c r="F89" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="G88" s="16" t="s">
+      <c r="G89" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="H88" s="24" t="s">
+      <c r="H89" s="24" t="s">
         <v>571</v>
-      </c>
-      <c r="I88" s="24" t="s">
-        <v>571</v>
-      </c>
-      <c r="J88" s="10"/>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="16"/>
-      <c r="B89" s="42"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="F89" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="G89" s="19" t="s">
-        <v>1568</v>
-      </c>
-      <c r="H89" s="24" t="s">
-        <v>574</v>
       </c>
       <c r="I89" s="24" t="s">
         <v>571</v>
@@ -12887,16 +12896,16 @@
       <c r="C90" s="16"/>
       <c r="D90" s="18"/>
       <c r="E90" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F90" s="25" t="s">
-        <v>125</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>1569</v>
+        <v>122</v>
+      </c>
+      <c r="G90" s="19" t="s">
+        <v>1568</v>
       </c>
       <c r="H90" s="24" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="I90" s="24" t="s">
         <v>571</v>
@@ -12906,19 +12915,19 @@
     <row r="91" spans="1:10">
       <c r="A91" s="16"/>
       <c r="B91" s="42"/>
-      <c r="C91" s="16" t="s">
-        <v>961</v>
-      </c>
-      <c r="D91" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="E91" s="19"/>
-      <c r="F91" s="21"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="F91" s="25" t="s">
+        <v>125</v>
+      </c>
       <c r="G91" s="16" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="H91" s="24" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="I91" s="24" t="s">
         <v>571</v>
@@ -12926,25 +12935,21 @@
       <c r="J91" s="10"/>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" s="16" t="s">
-        <v>575</v>
-      </c>
-      <c r="B92" s="25" t="s">
-        <v>574</v>
-      </c>
+      <c r="A92" s="16"/>
+      <c r="B92" s="42"/>
       <c r="C92" s="16" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D92" s="25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E92" s="19"/>
       <c r="F92" s="21"/>
       <c r="G92" s="16" t="s">
-        <v>575</v>
+        <v>1570</v>
       </c>
       <c r="H92" s="24" t="s">
-        <v>1571</v>
+        <v>580</v>
       </c>
       <c r="I92" s="24" t="s">
         <v>571</v>
@@ -12953,28 +12958,24 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="16" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B93" s="25" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D93" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="F93" s="25" t="s">
-        <v>128</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E93" s="19"/>
+      <c r="F93" s="21"/>
       <c r="G93" s="16" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H93" s="24" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
       <c r="I93" s="24" t="s">
         <v>571</v>
@@ -12983,20 +12984,28 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="16" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B94" s="25" t="s">
-        <v>580</v>
-      </c>
-      <c r="C94" s="16"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="21"/>
+        <v>577</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>965</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>128</v>
+      </c>
       <c r="G94" s="16" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="H94" s="24" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="I94" s="24" t="s">
         <v>571</v>
@@ -13004,21 +13013,21 @@
       <c r="J94" s="10"/>
     </row>
     <row r="95" spans="1:10">
-      <c r="A95" s="16"/>
-      <c r="B95" s="42"/>
-      <c r="C95" s="16" t="s">
-        <v>967</v>
-      </c>
-      <c r="D95" s="25" t="s">
-        <v>131</v>
-      </c>
+      <c r="A95" s="16" t="s">
+        <v>581</v>
+      </c>
+      <c r="B95" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="C95" s="16"/>
+      <c r="D95" s="18"/>
       <c r="E95" s="19"/>
       <c r="F95" s="21"/>
-      <c r="G95" s="19" t="s">
-        <v>1574</v>
+      <c r="G95" s="16" t="s">
+        <v>581</v>
       </c>
       <c r="H95" s="24" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="I95" s="24" t="s">
         <v>571</v>
@@ -13026,29 +13035,21 @@
       <c r="J95" s="10"/>
     </row>
     <row r="96" spans="1:10">
-      <c r="A96" s="16" t="s">
-        <v>584</v>
-      </c>
-      <c r="B96" s="25" t="s">
-        <v>583</v>
-      </c>
+      <c r="A96" s="16"/>
+      <c r="B96" s="42"/>
       <c r="C96" s="16" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D96" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="E96" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F96" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="G96" s="16" t="s">
-        <v>1576</v>
+      <c r="E96" s="19"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="19" t="s">
+        <v>1574</v>
       </c>
       <c r="H96" s="24" t="s">
-        <v>583</v>
+        <v>1575</v>
       </c>
       <c r="I96" s="24" t="s">
         <v>571</v>
@@ -13057,26 +13058,28 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="16" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B97" s="25" t="s">
-        <v>586</v>
-      </c>
-      <c r="C97" s="16"/>
-      <c r="D97" s="31" t="s">
-        <v>2088</v>
+        <v>583</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>969</v>
+      </c>
+      <c r="D97" s="25" t="s">
+        <v>133</v>
       </c>
       <c r="E97" s="16" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F97" s="25" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G97" s="16" t="s">
-        <v>587</v>
+        <v>1576</v>
       </c>
       <c r="H97" s="24" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="I97" s="24" t="s">
         <v>571</v>
@@ -13084,23 +13087,27 @@
       <c r="J97" s="10"/>
     </row>
     <row r="98" spans="1:10">
-      <c r="A98" s="16"/>
-      <c r="B98" s="42"/>
+      <c r="A98" s="16" t="s">
+        <v>587</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>586</v>
+      </c>
       <c r="C98" s="16"/>
       <c r="D98" s="31" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F98" s="25" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G98" s="16" t="s">
-        <v>1577</v>
+        <v>587</v>
       </c>
       <c r="H98" s="24" t="s">
-        <v>1578</v>
+        <v>586</v>
       </c>
       <c r="I98" s="24" t="s">
         <v>571</v>
@@ -13108,84 +13115,86 @@
       <c r="J98" s="10"/>
     </row>
     <row r="99" spans="1:10">
-      <c r="A99" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="B99" s="25" t="s">
-        <v>589</v>
-      </c>
-      <c r="C99" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="D99" s="25" t="s">
-        <v>589</v>
+      <c r="A99" s="16"/>
+      <c r="B99" s="42"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="31" t="s">
+        <v>2089</v>
       </c>
       <c r="E99" s="16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F99" s="25" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G99" s="16" t="s">
-        <v>590</v>
+        <v>1577</v>
       </c>
       <c r="H99" s="24" t="s">
-        <v>589</v>
+        <v>1578</v>
       </c>
       <c r="I99" s="24" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="J99" s="10"/>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="D100" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F100" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="G100" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="H100" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="I100" s="24" t="s">
+        <v>589</v>
+      </c>
+      <c r="J100" s="10"/>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="B100" s="25" t="s">
+      <c r="B101" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="C100" s="16" t="s">
+      <c r="C101" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="D100" s="25" t="s">
+      <c r="D101" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="E100" s="16" t="s">
+      <c r="E101" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="F100" s="25" t="s">
+      <c r="F101" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="G100" s="16" t="s">
+      <c r="G101" s="16" t="s">
         <v>592</v>
       </c>
-      <c r="H100" s="24" t="s">
+      <c r="H101" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="I100" s="24" t="s">
+      <c r="I101" s="24" t="s">
         <v>139</v>
-      </c>
-      <c r="J100" s="10"/>
-    </row>
-    <row r="101" spans="1:10">
-      <c r="A101" s="16"/>
-      <c r="B101" s="42"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="18"/>
-      <c r="E101" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="F101" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="G101" s="16" t="s">
-        <v>1579</v>
-      </c>
-      <c r="H101" s="24" t="s">
-        <v>1580</v>
-      </c>
-      <c r="I101" s="24" t="s">
-        <v>1580</v>
       </c>
       <c r="J101" s="10"/>
     </row>
@@ -13195,19 +13204,19 @@
       <c r="C102" s="16"/>
       <c r="D102" s="18"/>
       <c r="E102" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F102" s="25" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G102" s="16" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="H102" s="24" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="I102" s="24" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="J102" s="10"/>
     </row>
@@ -13217,16 +13226,16 @@
       <c r="C103" s="16"/>
       <c r="D103" s="18"/>
       <c r="E103" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F103" s="25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G103" s="16" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="H103" s="24" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="I103" s="24" t="s">
         <v>1582</v>
@@ -13239,16 +13248,16 @@
       <c r="C104" s="16"/>
       <c r="D104" s="18"/>
       <c r="E104" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F104" s="25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G104" s="16" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="H104" s="24" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="I104" s="24" t="s">
         <v>1582</v>
@@ -13261,41 +13270,41 @@
       <c r="C105" s="16"/>
       <c r="D105" s="18"/>
       <c r="E105" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F105" s="25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G105" s="16" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="H105" s="24" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="I105" s="24" t="s">
-        <v>1588</v>
+        <v>1582</v>
       </c>
       <c r="J105" s="10"/>
     </row>
-    <row r="106" spans="1:10" ht="28">
+    <row r="106" spans="1:10">
       <c r="A106" s="16"/>
       <c r="B106" s="42"/>
       <c r="C106" s="16"/>
       <c r="D106" s="18"/>
       <c r="E106" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F106" s="25" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G106" s="16" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="H106" s="24" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="I106" s="24" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="J106" s="10"/>
     </row>
@@ -13305,93 +13314,93 @@
       <c r="C107" s="16"/>
       <c r="D107" s="18"/>
       <c r="E107" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F107" s="25" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G107" s="16" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="H107" s="24" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="I107" s="24" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="J107" s="10"/>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" ht="28">
       <c r="A108" s="16"/>
       <c r="B108" s="42"/>
       <c r="C108" s="16"/>
       <c r="D108" s="18"/>
       <c r="E108" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F108" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="G108" s="16" t="s">
+        <v>1591</v>
+      </c>
+      <c r="H108" s="24" t="s">
+        <v>1592</v>
+      </c>
+      <c r="I108" s="24" t="s">
+        <v>1592</v>
+      </c>
+      <c r="J108" s="10"/>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="16"/>
+      <c r="B109" s="42"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="F108" s="25" t="s">
+      <c r="F109" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="G108" s="16" t="s">
+      <c r="G109" s="16" t="s">
         <v>1593</v>
       </c>
-      <c r="H108" s="24" t="s">
+      <c r="H109" s="24" t="s">
         <v>1594</v>
       </c>
-      <c r="I108" s="24" t="s">
+      <c r="I109" s="24" t="s">
         <v>1594</v>
       </c>
-      <c r="J108" s="10"/>
-    </row>
-    <row r="109" spans="1:10">
-      <c r="A109" s="16" t="s">
+      <c r="J109" s="10"/>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="B109" s="25" t="s">
+      <c r="B110" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C109" s="16" t="s">
+      <c r="C110" s="16" t="s">
         <v>971</v>
       </c>
-      <c r="D109" s="25" t="s">
+      <c r="D110" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="E109" s="49" t="s">
+      <c r="E110" s="49" t="s">
         <v>594</v>
       </c>
-      <c r="F109" s="41" t="s">
+      <c r="F110" s="41" t="s">
         <v>1595</v>
       </c>
-      <c r="G109" s="19" t="s">
+      <c r="G110" s="19" t="s">
         <v>1596</v>
       </c>
-      <c r="H109" s="24" t="s">
+      <c r="H110" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="I109" s="24" t="s">
+      <c r="I110" s="24" t="s">
         <v>142</v>
-      </c>
-      <c r="J109" s="10"/>
-    </row>
-    <row r="110" spans="1:10">
-      <c r="A110" s="16"/>
-      <c r="B110" s="42"/>
-      <c r="C110" s="16" t="s">
-        <v>975</v>
-      </c>
-      <c r="D110" s="25" t="s">
-        <v>599</v>
-      </c>
-      <c r="E110" s="19"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="16" t="s">
-        <v>1597</v>
-      </c>
-      <c r="H110" s="24" t="s">
-        <v>596</v>
-      </c>
-      <c r="I110" s="24" t="s">
-        <v>596</v>
       </c>
       <c r="J110" s="10"/>
     </row>
@@ -13399,21 +13408,21 @@
       <c r="A111" s="16"/>
       <c r="B111" s="42"/>
       <c r="C111" s="16" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D111" s="25" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E111" s="19"/>
       <c r="F111" s="21"/>
       <c r="G111" s="16" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="H111" s="24" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="I111" s="24" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="J111" s="10"/>
     </row>
@@ -13421,915 +13430,916 @@
       <c r="A112" s="16"/>
       <c r="B112" s="42"/>
       <c r="C112" s="16" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D112" s="25" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E112" s="19"/>
       <c r="F112" s="21"/>
       <c r="G112" s="16" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="H112" s="24" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="I112" s="24" t="s">
-        <v>602</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="J112" s="10"/>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="16"/>
       <c r="B113" s="42"/>
       <c r="C113" s="16" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="D113" s="25" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E113" s="19"/>
       <c r="F113" s="21"/>
       <c r="G113" s="16" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="H113" s="24" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="I113" s="24" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="16"/>
       <c r="B114" s="42"/>
       <c r="C114" s="16" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="D114" s="25" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E114" s="19"/>
       <c r="F114" s="21"/>
       <c r="G114" s="16" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="H114" s="24" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="I114" s="24" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="16"/>
       <c r="B115" s="42"/>
       <c r="C115" s="16" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D115" s="25" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E115" s="19"/>
       <c r="F115" s="21"/>
       <c r="G115" s="16" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="H115" s="24" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="I115" s="24" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="19"/>
+      <c r="A116" s="16"/>
       <c r="B116" s="42"/>
       <c r="C116" s="16" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D116" s="25" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E116" s="19"/>
       <c r="F116" s="21"/>
       <c r="G116" s="16" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="H116" s="24" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="I116" s="24" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" ht="28">
-      <c r="A117" s="16"/>
+        <v>611</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" s="19"/>
       <c r="B117" s="42"/>
       <c r="C117" s="16" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D117" s="25" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E117" s="19"/>
       <c r="F117" s="21"/>
       <c r="G117" s="16" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="H117" s="24" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="I117" s="24" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
-      <c r="A118" s="16" t="s">
-        <v>597</v>
-      </c>
-      <c r="B118" s="25" t="s">
-        <v>596</v>
-      </c>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="28">
+      <c r="A118" s="16"/>
+      <c r="B118" s="42"/>
       <c r="C118" s="16" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D118" s="25" t="s">
-        <v>145</v>
+        <v>620</v>
       </c>
       <c r="E118" s="19"/>
       <c r="F118" s="21"/>
       <c r="G118" s="16" t="s">
-        <v>597</v>
+        <v>1604</v>
       </c>
       <c r="H118" s="24" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="I118" s="24" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="16" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="D119" s="25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E119" s="19"/>
       <c r="F119" s="21"/>
       <c r="G119" s="16" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="H119" s="24" t="s">
-        <v>145</v>
+        <v>620</v>
       </c>
       <c r="I119" s="24" t="s">
-        <v>145</v>
+        <v>620</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="16" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D120" s="25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E120" s="19"/>
       <c r="F120" s="21"/>
       <c r="G120" s="16" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="H120" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I120" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="B121" s="25" t="s">
+        <v>602</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>995</v>
+      </c>
+      <c r="D121" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="E121" s="19"/>
+      <c r="F121" s="21"/>
+      <c r="G121" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="H121" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="I121" s="24" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="B121" s="25" t="s">
+      <c r="B122" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="C121" s="16" t="s">
+      <c r="C122" s="16" t="s">
         <v>997</v>
       </c>
-      <c r="D121" s="25" t="s">
+      <c r="D122" s="25" t="s">
         <v>629</v>
-      </c>
-      <c r="E121" s="19"/>
-      <c r="F121" s="20"/>
-      <c r="G121" s="16" t="s">
-        <v>606</v>
-      </c>
-      <c r="H121" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="I121" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
-      <c r="A122" s="16"/>
-      <c r="B122" s="25"/>
-      <c r="C122" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>632</v>
       </c>
       <c r="E122" s="19"/>
       <c r="F122" s="20"/>
       <c r="G122" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="H122" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="I122" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="16"/>
+      <c r="B123" s="25"/>
+      <c r="C123" s="16" t="s">
+        <v>999</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="E123" s="19"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="16" t="s">
         <v>1605</v>
       </c>
-      <c r="H122" s="24" t="s">
+      <c r="H123" s="24" t="s">
         <v>1606</v>
       </c>
-      <c r="I122" s="24" t="s">
+      <c r="I123" s="24" t="s">
         <v>1606</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
-      <c r="A123" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="B123" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>1002</v>
-      </c>
-      <c r="D123" s="25" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E123" s="19"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="H123" s="24" t="s">
-        <v>629</v>
-      </c>
-      <c r="I123" s="24" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="16" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B124" s="25" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="D124" s="25" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="E124" s="19"/>
       <c r="F124" s="21"/>
       <c r="G124" s="16" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="H124" s="24" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="I124" s="24" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="16" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B125" s="25" t="s">
-        <v>614</v>
-      </c>
-      <c r="C125" s="16"/>
-      <c r="D125" s="18"/>
+        <v>611</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D125" s="25" t="s">
+        <v>1004</v>
+      </c>
       <c r="E125" s="19"/>
       <c r="F125" s="21"/>
       <c r="G125" s="16" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="H125" s="24" t="s">
-        <v>1001</v>
+        <v>632</v>
       </c>
       <c r="I125" s="24" t="s">
-        <v>1001</v>
+        <v>632</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="16" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B126" s="25" t="s">
-        <v>617</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D126" s="25" t="s">
-        <v>1007</v>
-      </c>
+        <v>614</v>
+      </c>
+      <c r="C126" s="16"/>
+      <c r="D126" s="18"/>
       <c r="E126" s="19"/>
       <c r="F126" s="21"/>
       <c r="G126" s="16" t="s">
+        <v>615</v>
+      </c>
+      <c r="H126" s="24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I126" s="24" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="16" t="s">
         <v>618</v>
       </c>
-      <c r="H126" s="24" t="s">
+      <c r="B127" s="25" t="s">
+        <v>617</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D127" s="25" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E127" s="19"/>
+      <c r="F127" s="21"/>
+      <c r="G127" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="H127" s="24" t="s">
         <v>1004</v>
       </c>
-      <c r="I126" s="24" t="s">
+      <c r="I127" s="24" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
-      <c r="A127" s="16"/>
-      <c r="B127" s="42"/>
-      <c r="C127" s="16" t="s">
+    <row r="128" spans="1:9">
+      <c r="A128" s="16"/>
+      <c r="B128" s="42"/>
+      <c r="C128" s="16" t="s">
         <v>1011</v>
       </c>
-      <c r="D127" s="25" t="s">
+      <c r="D128" s="25" t="s">
         <v>1010</v>
       </c>
-      <c r="E127" s="19"/>
-      <c r="F127" s="20"/>
-      <c r="G127" s="19" t="s">
+      <c r="E128" s="19"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="19" t="s">
         <v>1607</v>
       </c>
-      <c r="H127" s="24" t="s">
+      <c r="H128" s="24" t="s">
         <v>1007</v>
       </c>
-      <c r="I127" s="24" t="s">
+      <c r="I128" s="24" t="s">
         <v>1007</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
-      <c r="A128" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="B128" s="25" t="s">
-        <v>620</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D128" s="25" t="s">
-        <v>1013</v>
-      </c>
-      <c r="E128" s="19"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="16" t="s">
-        <v>621</v>
-      </c>
-      <c r="H128" s="24" t="s">
-        <v>1010</v>
-      </c>
-      <c r="I128" s="24" t="s">
-        <v>1010</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="16" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B129" s="25" t="s">
-        <v>145</v>
+        <v>620</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>973</v>
+        <v>1014</v>
       </c>
       <c r="D129" s="25" t="s">
-        <v>596</v>
+        <v>1013</v>
       </c>
       <c r="E129" s="19"/>
       <c r="F129" s="21"/>
       <c r="G129" s="16" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H129" s="24" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="I129" s="24" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="16" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B130" s="25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>1016</v>
+        <v>973</v>
       </c>
       <c r="D130" s="25" t="s">
-        <v>154</v>
+        <v>596</v>
       </c>
       <c r="E130" s="19"/>
       <c r="F130" s="21"/>
       <c r="G130" s="16" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H130" s="24" t="s">
-        <v>154</v>
+        <v>1013</v>
       </c>
       <c r="I130" s="24" t="s">
-        <v>154</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="16" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B131" s="25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="D131" s="25" t="s">
-        <v>636</v>
+        <v>154</v>
       </c>
       <c r="E131" s="19"/>
       <c r="F131" s="21"/>
       <c r="G131" s="16" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="H131" s="24" t="s">
-        <v>636</v>
+        <v>154</v>
       </c>
       <c r="I131" s="24" t="s">
-        <v>636</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="16" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B132" s="25" t="s">
-        <v>629</v>
-      </c>
-      <c r="C132" s="16"/>
-      <c r="D132" s="18"/>
+        <v>151</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D132" s="25" t="s">
+        <v>636</v>
+      </c>
       <c r="E132" s="19"/>
       <c r="F132" s="21"/>
       <c r="G132" s="16" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H132" s="24" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="I132" s="24" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="16" t="s">
-        <v>513</v>
+        <v>630</v>
       </c>
       <c r="B133" s="25" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C133" s="16"/>
       <c r="D133" s="18"/>
       <c r="E133" s="19"/>
       <c r="F133" s="21"/>
       <c r="G133" s="16" t="s">
-        <v>513</v>
+        <v>630</v>
       </c>
       <c r="H133" s="24" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="I133" s="24" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="16" t="s">
-        <v>634</v>
+        <v>513</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D134" s="25" t="s">
-        <v>157</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="C134" s="16"/>
+      <c r="D134" s="18"/>
       <c r="E134" s="19"/>
       <c r="F134" s="21"/>
       <c r="G134" s="16" t="s">
-        <v>1608</v>
+        <v>513</v>
       </c>
       <c r="H134" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="I134" s="24" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="B135" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D135" s="25" t="s">
         <v>157</v>
-      </c>
-      <c r="I134" s="24" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10">
-      <c r="A135" s="16"/>
-      <c r="B135" s="42"/>
-      <c r="C135" s="16" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D135" s="25" t="s">
-        <v>1021</v>
       </c>
       <c r="E135" s="19"/>
       <c r="F135" s="21"/>
-      <c r="G135" s="19" t="s">
-        <v>1609</v>
+      <c r="G135" s="16" t="s">
+        <v>1608</v>
       </c>
       <c r="H135" s="24" t="s">
-        <v>664</v>
+        <v>157</v>
       </c>
       <c r="I135" s="24" t="s">
-        <v>664</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136" spans="1:10">
-      <c r="A136" s="16" t="s">
-        <v>637</v>
-      </c>
-      <c r="B136" s="25" t="s">
-        <v>636</v>
-      </c>
+      <c r="A136" s="16"/>
+      <c r="B136" s="42"/>
       <c r="C136" s="16" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="D136" s="25" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="E136" s="19"/>
       <c r="F136" s="21"/>
-      <c r="G136" s="16" t="s">
-        <v>637</v>
+      <c r="G136" s="19" t="s">
+        <v>1609</v>
       </c>
       <c r="H136" s="24" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="I136" s="24" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="16" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="B137" s="25" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="D137" s="25" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="E137" s="19"/>
       <c r="F137" s="21"/>
       <c r="G137" s="16" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="H137" s="24" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="I137" s="24" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="16" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B138" s="25" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="D138" s="25" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="E138" s="19"/>
       <c r="F138" s="21"/>
       <c r="G138" s="16" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="H138" s="24" t="s">
-        <v>1610</v>
+        <v>670</v>
       </c>
       <c r="I138" s="24" t="s">
-        <v>1610</v>
+        <v>670</v>
       </c>
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="16" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B139" s="25" t="s">
-        <v>645</v>
-      </c>
-      <c r="C139" s="16"/>
-      <c r="D139" s="18"/>
+        <v>642</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D139" s="25" t="s">
+        <v>1030</v>
+      </c>
       <c r="E139" s="19"/>
       <c r="F139" s="21"/>
       <c r="G139" s="16" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H139" s="24" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="I139" s="24" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="16" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B140" s="25" t="s">
-        <v>648</v>
-      </c>
-      <c r="C140" s="16" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D140" s="25" t="s">
-        <v>160</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="C140" s="16"/>
+      <c r="D140" s="18"/>
       <c r="E140" s="19"/>
       <c r="F140" s="21"/>
       <c r="G140" s="16" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="H140" s="24" t="s">
-        <v>1021</v>
+        <v>1611</v>
       </c>
       <c r="I140" s="24" t="s">
-        <v>1021</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="16" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B141" s="25" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="D141" s="25" t="s">
-        <v>1035</v>
+        <v>160</v>
       </c>
       <c r="E141" s="19"/>
       <c r="F141" s="21"/>
       <c r="G141" s="16" t="s">
+        <v>649</v>
+      </c>
+      <c r="H141" s="24" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I141" s="24" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="16" t="s">
         <v>652</v>
       </c>
-      <c r="H141" s="24" t="s">
-        <v>1024</v>
-      </c>
-      <c r="I141" s="24" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10">
-      <c r="A142" s="16"/>
-      <c r="B142" s="42"/>
+      <c r="B142" s="25" t="s">
+        <v>651</v>
+      </c>
       <c r="C142" s="16" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="D142" s="25" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="E142" s="19"/>
       <c r="F142" s="21"/>
-      <c r="G142" s="19" t="s">
+      <c r="G142" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="H142" s="24" t="s">
+        <v>1024</v>
+      </c>
+      <c r="I142" s="24" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="16"/>
+      <c r="B143" s="42"/>
+      <c r="C143" s="16" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D143" s="25" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E143" s="19"/>
+      <c r="F143" s="21"/>
+      <c r="G143" s="19" t="s">
         <v>1612</v>
       </c>
-      <c r="H142" s="24" t="s">
+      <c r="H143" s="24" t="s">
         <v>1027</v>
       </c>
-      <c r="I142" s="24" t="s">
+      <c r="I143" s="24" t="s">
         <v>1027</v>
-      </c>
-      <c r="J142" s="10"/>
-    </row>
-    <row r="143" spans="1:10">
-      <c r="A143" s="16" t="s">
-        <v>655</v>
-      </c>
-      <c r="B143" s="25" t="s">
-        <v>654</v>
-      </c>
-      <c r="C143" s="16" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D143" s="25" t="s">
-        <v>1041</v>
-      </c>
-      <c r="E143" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="F143" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="G143" s="16" t="s">
-        <v>655</v>
-      </c>
-      <c r="H143" s="24" t="s">
-        <v>1030</v>
-      </c>
-      <c r="I143" s="24" t="s">
-        <v>1030</v>
       </c>
       <c r="J143" s="10"/>
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="16" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B144" s="25" t="s">
-        <v>657</v>
-      </c>
-      <c r="C144" s="16"/>
-      <c r="D144" s="31" t="s">
-        <v>664</v>
-      </c>
-      <c r="E144" s="19"/>
-      <c r="F144" s="21"/>
+        <v>654</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D144" s="25" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F144" s="25" t="s">
+        <v>166</v>
+      </c>
       <c r="G144" s="16" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="H144" s="24" t="s">
-        <v>160</v>
+        <v>1030</v>
       </c>
       <c r="I144" s="24" t="s">
-        <v>160</v>
+        <v>1030</v>
       </c>
       <c r="J144" s="10"/>
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="16" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="B145" s="25" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="C145" s="16"/>
-      <c r="D145" s="18"/>
+      <c r="D145" s="31" t="s">
+        <v>664</v>
+      </c>
       <c r="E145" s="19"/>
       <c r="F145" s="21"/>
       <c r="G145" s="16" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="H145" s="24" t="s">
-        <v>1035</v>
+        <v>160</v>
       </c>
       <c r="I145" s="24" t="s">
-        <v>1035</v>
+        <v>160</v>
       </c>
       <c r="J145" s="10"/>
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="16" t="s">
-        <v>200</v>
+        <v>661</v>
       </c>
       <c r="B146" s="25" t="s">
-        <v>157</v>
+        <v>660</v>
       </c>
       <c r="C146" s="16"/>
       <c r="D146" s="18"/>
       <c r="E146" s="19"/>
       <c r="F146" s="21"/>
       <c r="G146" s="16" t="s">
-        <v>200</v>
+        <v>661</v>
       </c>
       <c r="H146" s="24" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="I146" s="24" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="J146" s="10"/>
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="16" t="s">
-        <v>665</v>
+        <v>200</v>
       </c>
       <c r="B147" s="25" t="s">
-        <v>664</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D147" s="25" t="s">
-        <v>1049</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="F147" s="25" t="s">
-        <v>172</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C147" s="16"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="21"/>
       <c r="G147" s="16" t="s">
-        <v>665</v>
+        <v>200</v>
       </c>
       <c r="H147" s="24" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="I147" s="24" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="J147" s="10"/>
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="B148" s="25" t="s">
+        <v>664</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D148" s="25" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="F148" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G148" s="16" t="s">
+        <v>665</v>
+      </c>
+      <c r="H148" s="24" t="s">
+        <v>1041</v>
+      </c>
+      <c r="I148" s="24" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J148" s="10"/>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="B148" s="25" t="s">
+      <c r="B149" s="25" t="s">
         <v>667</v>
       </c>
-      <c r="C148" s="16" t="s">
+      <c r="C149" s="16" t="s">
         <v>1045</v>
       </c>
-      <c r="D148" s="25" t="s">
+      <c r="D149" s="25" t="s">
         <v>1044</v>
       </c>
-      <c r="E148" s="24"/>
-      <c r="F148" s="20"/>
-      <c r="G148" s="16" t="s">
+      <c r="E149" s="24"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="H148" s="24" t="s">
+      <c r="H149" s="24" t="s">
         <v>1044</v>
       </c>
-      <c r="I148" s="24" t="s">
+      <c r="I149" s="24" t="s">
         <v>1044</v>
-      </c>
-    </row>
-    <row r="149" spans="1:10">
-      <c r="A149" s="16"/>
-      <c r="B149" s="17"/>
-      <c r="C149" s="16" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D149" s="25" t="s">
-        <v>1046</v>
-      </c>
-      <c r="E149" s="19"/>
-      <c r="F149" s="20"/>
-      <c r="G149" s="19" t="s">
-        <v>1613</v>
-      </c>
-      <c r="H149" s="24" t="s">
-        <v>1046</v>
-      </c>
-      <c r="I149" s="24" t="s">
-        <v>1046</v>
       </c>
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="16"/>
       <c r="B150" s="17"/>
-      <c r="C150" s="16"/>
-      <c r="D150" s="18"/>
-      <c r="E150" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="F150" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="G150" s="16" t="s">
-        <v>1614</v>
+      <c r="C150" s="16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D150" s="25" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E150" s="19"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="19" t="s">
+        <v>1613</v>
       </c>
       <c r="H150" s="24" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="I150" s="24" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="151" spans="1:10">
@@ -14338,170 +14348,162 @@
       <c r="C151" s="16"/>
       <c r="D151" s="18"/>
       <c r="E151" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="F151" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="G151" s="16" t="s">
+        <v>1614</v>
+      </c>
+      <c r="H151" s="24" t="s">
+        <v>1049</v>
+      </c>
+      <c r="I151" s="24" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="16"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="F151" s="25" t="s">
+      <c r="F152" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="G151" s="16" t="s">
+      <c r="G152" s="16" t="s">
         <v>1615</v>
       </c>
-      <c r="H151" s="24" t="s">
+      <c r="H152" s="24" t="s">
         <v>1052</v>
       </c>
-      <c r="I151" s="24" t="s">
+      <c r="I152" s="24" t="s">
         <v>1052</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
-      <c r="A152" s="16" t="s">
+    <row r="153" spans="1:10">
+      <c r="A153" s="16" t="s">
         <v>671</v>
       </c>
-      <c r="B152" s="25" t="s">
+      <c r="B153" s="25" t="s">
         <v>670</v>
       </c>
-      <c r="C152" s="16" t="s">
+      <c r="C153" s="16" t="s">
         <v>1053</v>
       </c>
-      <c r="D152" s="25" t="s">
+      <c r="D153" s="25" t="s">
         <v>1052</v>
       </c>
-      <c r="E152" s="19"/>
-      <c r="F152" s="20"/>
-      <c r="G152" s="16" t="s">
+      <c r="E153" s="19"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="16" t="s">
         <v>671</v>
       </c>
-      <c r="H152" s="24" t="s">
+      <c r="H153" s="24" t="s">
         <v>1616</v>
       </c>
-      <c r="I152" s="24" t="s">
+      <c r="I153" s="24" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="28">
-      <c r="A153" s="16"/>
-      <c r="B153" s="17"/>
-      <c r="C153" s="16"/>
-      <c r="D153" s="18"/>
-      <c r="E153" s="16" t="s">
+    <row r="154" spans="1:10" ht="28">
+      <c r="A154" s="16"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="F153" s="25" t="s">
+      <c r="F154" s="25" t="s">
         <v>178</v>
       </c>
-      <c r="G153" s="16" t="s">
+      <c r="G154" s="16" t="s">
         <v>1617</v>
       </c>
-      <c r="H153" s="24" t="s">
+      <c r="H154" s="24" t="s">
         <v>1618</v>
       </c>
-      <c r="I153" s="24" t="s">
+      <c r="I154" s="24" t="s">
         <v>1618</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
-      <c r="A154" s="16" t="s">
+    <row r="155" spans="1:10">
+      <c r="A155" s="16" t="s">
         <v>673</v>
       </c>
-      <c r="B154" s="25" t="s">
+      <c r="B155" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="C154" s="16" t="s">
+      <c r="C155" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="D154" s="25" t="s">
+      <c r="D155" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="E154" s="16" t="s">
+      <c r="E155" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="F154" s="26" t="s">
+      <c r="F155" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="G154" s="16" t="s">
+      <c r="G155" s="16" t="s">
         <v>1619</v>
       </c>
-      <c r="H154" s="24" t="s">
+      <c r="H155" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="I154" s="24" t="s">
+      <c r="I155" s="24" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="19" customHeight="1">
-      <c r="A155" s="16" t="s">
+    <row r="156" spans="1:10" ht="19" customHeight="1">
+      <c r="A156" s="16" t="s">
         <v>675</v>
       </c>
-      <c r="B155" s="25" t="s">
+      <c r="B156" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C155" s="16" t="s">
+      <c r="C156" s="16" t="s">
         <v>1057</v>
       </c>
-      <c r="D155" s="25" t="s">
+      <c r="D156" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="E155" s="16" t="s">
+      <c r="E156" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="F155" s="25" t="s">
+      <c r="F156" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="G155" s="16" t="s">
+      <c r="G156" s="16" t="s">
         <v>1057</v>
       </c>
-      <c r="H155" s="24" t="s">
+      <c r="H156" s="24" t="s">
         <v>184</v>
-      </c>
-      <c r="I155" s="24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="156" spans="1:10" ht="19" customHeight="1">
-      <c r="A156" s="16"/>
-      <c r="B156" s="17"/>
-      <c r="C156" s="16" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D156" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="E156" s="16"/>
-      <c r="F156" s="25"/>
-      <c r="G156" s="16" t="s">
-        <v>1620</v>
-      </c>
-      <c r="H156" s="24" t="s">
-        <v>187</v>
       </c>
       <c r="I156" s="24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
-      <c r="A157" s="16" t="s">
-        <v>677</v>
-      </c>
-      <c r="B157" s="25" t="s">
+    <row r="157" spans="1:10" ht="19" customHeight="1">
+      <c r="A157" s="16"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="16" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D157" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C157" s="16" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D157" s="25" t="s">
-        <v>1060</v>
-      </c>
-      <c r="E157" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="F157" s="25" t="s">
+      <c r="E157" s="16"/>
+      <c r="F157" s="25"/>
+      <c r="G157" s="16" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H157" s="24" t="s">
         <v>187</v>
-      </c>
-      <c r="G157" s="16" t="s">
-        <v>677</v>
-      </c>
-      <c r="H157" s="24" t="s">
-        <v>190</v>
       </c>
       <c r="I157" s="24" t="s">
         <v>184</v>
@@ -14509,26 +14511,28 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="16" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B158" s="25" t="s">
-        <v>679</v>
-      </c>
-      <c r="C158" s="16"/>
+        <v>187</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>1061</v>
+      </c>
       <c r="D158" s="25" t="s">
-        <v>2082</v>
+        <v>1060</v>
       </c>
       <c r="E158" s="16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F158" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G158" s="16" t="s">
+        <v>677</v>
+      </c>
+      <c r="H158" s="24" t="s">
         <v>190</v>
-      </c>
-      <c r="G158" s="16" t="s">
-        <v>680</v>
-      </c>
-      <c r="H158" s="24" t="s">
-        <v>193</v>
       </c>
       <c r="I158" s="24" t="s">
         <v>184</v>
@@ -14536,22 +14540,26 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="16" t="s">
-        <v>200</v>
+        <v>680</v>
       </c>
       <c r="B159" s="25" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C159" s="16"/>
       <c r="D159" s="25" t="s">
-        <v>2083</v>
-      </c>
-      <c r="E159" s="19"/>
-      <c r="F159" s="21"/>
+        <v>2082</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="F159" s="25" t="s">
+        <v>190</v>
+      </c>
       <c r="G159" s="16" t="s">
-        <v>200</v>
+        <v>680</v>
       </c>
       <c r="H159" s="24" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I159" s="24" t="s">
         <v>184</v>
@@ -14559,28 +14567,22 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="16" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B160" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="C160" s="16" t="s">
-        <v>1064</v>
-      </c>
+        <v>682</v>
+      </c>
+      <c r="C160" s="16"/>
       <c r="D160" s="25" t="s">
-        <v>1063</v>
-      </c>
-      <c r="E160" s="16" t="s">
-        <v>194</v>
-      </c>
-      <c r="F160" s="25" t="s">
-        <v>193</v>
-      </c>
+        <v>2083</v>
+      </c>
+      <c r="E160" s="19"/>
+      <c r="F160" s="21"/>
       <c r="G160" s="16" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="H160" s="24" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I160" s="24" t="s">
         <v>184</v>
@@ -14588,24 +14590,28 @@
     </row>
     <row r="161" spans="1:9">
       <c r="A161" s="16" t="s">
-        <v>685</v>
+        <v>194</v>
       </c>
       <c r="B161" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D161" s="25" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E161" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F161" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C161" s="16" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D161" s="25" t="s">
-        <v>1066</v>
-      </c>
-      <c r="E161" s="19"/>
-      <c r="F161" s="21"/>
       <c r="G161" s="16" t="s">
-        <v>685</v>
+        <v>194</v>
       </c>
       <c r="H161" s="24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I161" s="24" t="s">
         <v>184</v>
@@ -14613,28 +14619,24 @@
     </row>
     <row r="162" spans="1:9">
       <c r="A162" s="16" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B162" s="25" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="D162" s="25" t="s">
-        <v>1069</v>
-      </c>
-      <c r="E162" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="F162" s="25" t="s">
+        <v>1066</v>
+      </c>
+      <c r="E162" s="19"/>
+      <c r="F162" s="21"/>
+      <c r="G162" s="16" t="s">
+        <v>685</v>
+      </c>
+      <c r="H162" s="24" t="s">
         <v>202</v>
-      </c>
-      <c r="G162" s="16" t="s">
-        <v>687</v>
-      </c>
-      <c r="H162" s="24" t="s">
-        <v>692</v>
       </c>
       <c r="I162" s="24" t="s">
         <v>184</v>
@@ -14642,49 +14644,57 @@
     </row>
     <row r="163" spans="1:9">
       <c r="A163" s="16" t="s">
-        <v>197</v>
+        <v>687</v>
       </c>
       <c r="B163" s="25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D163" s="25" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="E163" s="16" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F163" s="25" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G163" s="16" t="s">
-        <v>197</v>
+        <v>687</v>
       </c>
       <c r="H163" s="24" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="I163" s="24" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="164" spans="1:9">
-      <c r="A164" s="16"/>
-      <c r="B164" s="17"/>
-      <c r="C164" s="16"/>
-      <c r="D164" s="18"/>
+      <c r="A164" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="B164" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D164" s="25" t="s">
+        <v>1072</v>
+      </c>
       <c r="E164" s="16" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F164" s="25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G164" s="16" t="s">
-        <v>1621</v>
+        <v>197</v>
       </c>
       <c r="H164" s="24" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="I164" s="24" t="s">
         <v>184</v>
@@ -14696,462 +14706,462 @@
       <c r="C165" s="16"/>
       <c r="D165" s="18"/>
       <c r="E165" s="16" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F165" s="25" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G165" s="16" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="H165" s="24" t="s">
-        <v>205</v>
+        <v>698</v>
       </c>
       <c r="I165" s="24" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="166" spans="1:9">
-      <c r="A166" s="16" t="s">
-        <v>690</v>
-      </c>
-      <c r="B166" s="25" t="s">
-        <v>202</v>
-      </c>
-      <c r="C166" s="16" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D166" s="25" t="s">
-        <v>190</v>
-      </c>
+      <c r="A166" s="16"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="16"/>
+      <c r="D166" s="18"/>
       <c r="E166" s="16" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="F166" s="25" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G166" s="16" t="s">
-        <v>690</v>
+        <v>1622</v>
       </c>
       <c r="H166" s="24" t="s">
-        <v>703</v>
+        <v>205</v>
       </c>
       <c r="I166" s="24" t="s">
-        <v>703</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="16" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B167" s="25" t="s">
-        <v>692</v>
+        <v>202</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="D167" s="25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E167" s="16" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F167" s="25" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G167" s="16" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="H167" s="24" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="I167" s="24" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="16" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B168" s="25" t="s">
-        <v>695</v>
-      </c>
-      <c r="C168" s="16"/>
-      <c r="D168" s="18"/>
-      <c r="E168" s="19"/>
-      <c r="F168" s="21"/>
+        <v>692</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D168" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="E168" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="F168" s="25" t="s">
+        <v>208</v>
+      </c>
       <c r="G168" s="16" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H168" s="24" t="s">
-        <v>1623</v>
+        <v>712</v>
       </c>
       <c r="I168" s="24" t="s">
-        <v>1623</v>
+        <v>712</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="16" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B169" s="25" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C169" s="16"/>
       <c r="D169" s="18"/>
       <c r="E169" s="19"/>
       <c r="F169" s="21"/>
       <c r="G169" s="16" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="H169" s="24" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="I169" s="24" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="16" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B170" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="C170" s="16" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D170" s="25" t="s">
-        <v>202</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="C170" s="16"/>
+      <c r="D170" s="18"/>
       <c r="E170" s="19"/>
       <c r="F170" s="21"/>
       <c r="G170" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="H170" s="24" t="s">
+        <v>1624</v>
+      </c>
+      <c r="I170" s="24" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" s="16" t="s">
         <v>701</v>
       </c>
-      <c r="H170" s="24" t="s">
-        <v>1625</v>
-      </c>
-      <c r="I170" s="24" t="s">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
-      <c r="A171" s="16"/>
-      <c r="B171" s="17"/>
+      <c r="B171" s="25" t="s">
+        <v>205</v>
+      </c>
       <c r="C171" s="16" t="s">
-        <v>1079</v>
+        <v>1083</v>
       </c>
       <c r="D171" s="25" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="E171" s="19"/>
       <c r="F171" s="21"/>
       <c r="G171" s="16" t="s">
-        <v>1626</v>
+        <v>701</v>
       </c>
       <c r="H171" s="24" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="I171" s="24" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="172" spans="1:9">
       <c r="A172" s="16"/>
       <c r="B172" s="17"/>
       <c r="C172" s="16" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D172" s="25" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E172" s="19"/>
       <c r="F172" s="21"/>
       <c r="G172" s="16" t="s">
+        <v>1626</v>
+      </c>
+      <c r="H172" s="24" t="s">
+        <v>1627</v>
+      </c>
+      <c r="I172" s="24" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" s="16"/>
+      <c r="B173" s="17"/>
+      <c r="C173" s="16" t="s">
+        <v>1081</v>
+      </c>
+      <c r="D173" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="E173" s="19"/>
+      <c r="F173" s="21"/>
+      <c r="G173" s="16" t="s">
         <v>1628</v>
       </c>
-      <c r="H172" s="24" t="s">
+      <c r="H173" s="24" t="s">
         <v>1629</v>
       </c>
-      <c r="I172" s="24" t="s">
+      <c r="I173" s="24" t="s">
         <v>1629</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
-      <c r="A173" s="16" t="s">
+    <row r="174" spans="1:9">
+      <c r="A174" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="B173" s="25" t="s">
+      <c r="B174" s="25" t="s">
         <v>703</v>
       </c>
-      <c r="C173" s="16" t="s">
+      <c r="C174" s="16" t="s">
         <v>1085</v>
       </c>
-      <c r="D173" s="25" t="s">
+      <c r="D174" s="25" t="s">
         <v>692</v>
       </c>
-      <c r="E173" s="16" t="s">
+      <c r="E174" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="F173" s="25" t="s">
+      <c r="F174" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="G173" s="16" t="s">
+      <c r="G174" s="16" t="s">
         <v>704</v>
       </c>
-      <c r="H173" s="24" t="s">
+      <c r="H174" s="24" t="s">
         <v>208</v>
-      </c>
-      <c r="I173" s="24" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
-      <c r="A174" s="16"/>
-      <c r="B174" s="17"/>
-      <c r="C174" s="16" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D174" s="25" t="s">
-        <v>1087</v>
-      </c>
-      <c r="E174" s="19"/>
-      <c r="F174" s="21"/>
-      <c r="G174" s="16" t="s">
-        <v>1630</v>
-      </c>
-      <c r="H174" s="24" t="s">
-        <v>720</v>
       </c>
       <c r="I174" s="24" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="175" spans="1:9">
-      <c r="A175" s="19"/>
-      <c r="B175" s="23"/>
+      <c r="A175" s="16"/>
+      <c r="B175" s="17"/>
       <c r="C175" s="16" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D175" s="25" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="E175" s="19"/>
       <c r="F175" s="21"/>
       <c r="G175" s="16" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="H175" s="24" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="I175" s="24" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="28">
-      <c r="A176" s="16" t="s">
-        <v>707</v>
-      </c>
-      <c r="B176" s="25" t="s">
-        <v>706</v>
-      </c>
-      <c r="C176" s="19"/>
-      <c r="D176" s="22"/>
+    <row r="176" spans="1:9">
+      <c r="A176" s="19"/>
+      <c r="B176" s="23"/>
+      <c r="C176" s="16" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D176" s="25" t="s">
+        <v>1090</v>
+      </c>
       <c r="E176" s="19"/>
       <c r="F176" s="21"/>
-      <c r="G176" s="19" t="s">
+      <c r="G176" s="16" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H176" s="24" t="s">
+        <v>723</v>
+      </c>
+      <c r="I176" s="24" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="28">
+      <c r="A177" s="16" t="s">
         <v>707</v>
       </c>
-      <c r="H176" s="24" t="s">
-        <v>1632</v>
-      </c>
-      <c r="I176" s="24" t="s">
-        <v>1632</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
-      <c r="A177" s="16" t="s">
-        <v>710</v>
-      </c>
       <c r="B177" s="25" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C177" s="19"/>
       <c r="D177" s="22"/>
       <c r="E177" s="19"/>
       <c r="F177" s="21"/>
-      <c r="G177" s="16" t="s">
-        <v>710</v>
+      <c r="G177" s="19" t="s">
+        <v>707</v>
       </c>
       <c r="H177" s="24" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="I177" s="24" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="178" spans="1:9">
       <c r="A178" s="16" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B178" s="25" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C178" s="19"/>
       <c r="D178" s="22"/>
       <c r="E178" s="19"/>
       <c r="F178" s="21"/>
       <c r="G178" s="16" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="H178" s="24" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="I178" s="24" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="16" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B179" s="25" t="s">
-        <v>715</v>
-      </c>
-      <c r="C179" s="16" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D179" s="25" t="s">
-        <v>695</v>
-      </c>
-      <c r="E179" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="F179" s="25" t="s">
-        <v>220</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="C179" s="19"/>
+      <c r="D179" s="22"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="21"/>
       <c r="G179" s="16" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="H179" s="24" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="I179" s="24" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="180" spans="1:9">
       <c r="A180" s="16" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B180" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="C180" s="19"/>
-      <c r="D180" s="22"/>
-      <c r="E180" s="19"/>
-      <c r="F180" s="21"/>
+        <v>715</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D180" s="25" t="s">
+        <v>695</v>
+      </c>
+      <c r="E180" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="F180" s="25" t="s">
+        <v>220</v>
+      </c>
       <c r="G180" s="16" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="H180" s="24" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="I180" s="24" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" s="16" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B181" s="25" t="s">
-        <v>720</v>
+        <v>208</v>
       </c>
       <c r="C181" s="19"/>
       <c r="D181" s="22"/>
       <c r="E181" s="19"/>
       <c r="F181" s="21"/>
       <c r="G181" s="16" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="H181" s="24" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="I181" s="24" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" s="16" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B182" s="25" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C182" s="19"/>
       <c r="D182" s="22"/>
       <c r="E182" s="19"/>
       <c r="F182" s="21"/>
       <c r="G182" s="16" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="H182" s="24" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="I182" s="24" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="16" t="s">
+        <v>724</v>
+      </c>
+      <c r="B183" s="25" t="s">
+        <v>723</v>
+      </c>
+      <c r="C183" s="19"/>
+      <c r="D183" s="22"/>
+      <c r="E183" s="19"/>
+      <c r="F183" s="21"/>
+      <c r="G183" s="16" t="s">
+        <v>724</v>
+      </c>
+      <c r="H183" s="24" t="s">
+        <v>1638</v>
+      </c>
+      <c r="I183" s="24" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
+      <c r="A184" s="16" t="s">
         <v>726</v>
       </c>
-      <c r="B183" s="25" t="s">
+      <c r="B184" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="C183" s="16" t="s">
+      <c r="C184" s="16" t="s">
         <v>1095</v>
       </c>
-      <c r="D183" s="25" t="s">
+      <c r="D184" s="25" t="s">
         <v>211</v>
       </c>
-      <c r="E183" s="16" t="s">
+      <c r="E184" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="F183" s="25" t="s">
+      <c r="F184" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="G183" s="16" t="s">
+      <c r="G184" s="16" t="s">
         <v>726</v>
       </c>
-      <c r="H183" s="24" t="s">
+      <c r="H184" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="I183" s="24" t="s">
+      <c r="I184" s="24" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
-      <c r="A184" s="19"/>
-      <c r="B184" s="23"/>
-      <c r="C184" s="19"/>
-      <c r="D184" s="22"/>
-      <c r="E184" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="F184" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="G184" s="16" t="s">
-        <v>1639</v>
-      </c>
-      <c r="H184" s="25" t="s">
-        <v>226</v>
-      </c>
-      <c r="I184" s="25" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -15160,19 +15170,19 @@
       <c r="C185" s="19"/>
       <c r="D185" s="22"/>
       <c r="E185" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F185" s="25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G185" s="16" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="H185" s="25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I185" s="25" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -15181,19 +15191,19 @@
       <c r="C186" s="19"/>
       <c r="D186" s="22"/>
       <c r="E186" s="16" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F186" s="25" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G186" s="16" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="H186" s="25" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I186" s="25" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -15202,19 +15212,19 @@
       <c r="C187" s="19"/>
       <c r="D187" s="22"/>
       <c r="E187" s="16" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F187" s="25" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G187" s="16" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="H187" s="25" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I187" s="25" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -15223,19 +15233,19 @@
       <c r="C188" s="19"/>
       <c r="D188" s="22"/>
       <c r="E188" s="16" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F188" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G188" s="16" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="H188" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I188" s="25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -15244,19 +15254,19 @@
       <c r="C189" s="19"/>
       <c r="D189" s="22"/>
       <c r="E189" s="16" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F189" s="25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G189" s="16" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="H189" s="25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I189" s="25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -15265,18 +15275,39 @@
       <c r="C190" s="19"/>
       <c r="D190" s="22"/>
       <c r="E190" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="F190" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G190" s="16" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H190" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="I190" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
+      <c r="A191" s="19"/>
+      <c r="B191" s="23"/>
+      <c r="C191" s="19"/>
+      <c r="D191" s="22"/>
+      <c r="E191" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="F190" s="25" t="s">
+      <c r="F191" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="G190" s="16" t="s">
+      <c r="G191" s="16" t="s">
         <v>1645</v>
       </c>
-      <c r="H190" s="25" t="s">
+      <c r="H191" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="I190" s="25" t="s">
+      <c r="I191" s="25" t="s">
         <v>244</v>
       </c>
     </row>
@@ -19072,7 +19103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7832122E-165D-4374-A316-B52F440803C9}">
   <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A110" workbookViewId="0">
       <selection activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
@@ -33805,7 +33836,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3EE53F-5E03-424B-9FB1-D1F2E8FB54B4}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A42" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
@@ -37555,8 +37586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF0D163-580A-4FF7-AAB1-247176513E84}">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D83" sqref="D2:D83"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="14"/>
@@ -39537,10 +39568,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A898FF16-E61F-4675-B615-BBC8AE3A199B}">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
-    <sheetView topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -41648,8 +41679,23 @@
         <v>1596</v>
       </c>
     </row>
+    <row r="152" spans="1:4" ht="16">
+      <c r="A152" s="93" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B152" s="89" t="s">
+        <v>518</v>
+      </c>
+      <c r="C152" s="93" t="s">
+        <v>3280</v>
+      </c>
+      <c r="D152" s="68" t="s">
+        <v>3281</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 

--- a/ETL/vietnames_to_fiin.xlsx
+++ b/ETL/vietnames_to_fiin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quanghung20gg/code/fs_chatbot/chatbot_financial_statement/ETL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51F31AE-DA74-0A4F-9D8E-BDCF398A4310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68869F6-2BDF-3649-9131-A64A79540CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5240" yWindow="1800" windowWidth="23560" windowHeight="21040" activeTab="1" xr2:uid="{181F491C-CE5D-4C83-A516-210AAAD12FF4}"/>
+    <workbookView xWindow="5240" yWindow="1200" windowWidth="23560" windowHeight="21040" activeTab="1" xr2:uid="{181F491C-CE5D-4C83-A516-210AAAD12FF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Standard BS" sheetId="4" r:id="rId1"/>
@@ -33836,8 +33836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3EE53F-5E03-424B-9FB1-D1F2E8FB54B4}">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="125" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
